--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1501317.222840608</v>
+        <v>1500608.053066301</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153896.2422463825</v>
+        <v>151930.1351504002</v>
       </c>
     </row>
     <row r="8">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="T6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.1776483877525582</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1254,23 +1254,23 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>3.097658594934726</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.097658594934726</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.9587718714988</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>169.2219024907746</v>
+        <v>169.2219024907745</v>
       </c>
       <c r="I11" t="n">
-        <v>63.24867564227714</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.73451669048101</v>
+        <v>49.73451669048099</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6584314502356</v>
+        <v>44.65843145023558</v>
       </c>
       <c r="U11" t="n">
-        <v>72.33726223721348</v>
+        <v>72.33726223721345</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>143.0663958384235</v>
       </c>
       <c r="W11" t="n">
-        <v>160.0830760550384</v>
+        <v>69.52536241344997</v>
       </c>
       <c r="X11" t="n">
-        <v>11.27056120703793</v>
+        <v>181.9693265239776</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>9.704763753637422</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>70.37524791795249</v>
       </c>
       <c r="F12" t="n">
-        <v>36.65950220726912</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.79088422295318</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="T12" t="n">
-        <v>37.16046115686558</v>
+        <v>37.16046115686555</v>
       </c>
       <c r="U12" t="n">
-        <v>59.41472947352854</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="V12" t="n">
-        <v>62.83553314467378</v>
+        <v>62.83553314467375</v>
       </c>
       <c r="W12" t="n">
-        <v>88.89119580628312</v>
+        <v>88.89119580628309</v>
       </c>
       <c r="X12" t="n">
-        <v>39.49952666874213</v>
+        <v>39.49952666874211</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.57089836329715</v>
+        <v>45.57089836329712</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.64393163552156</v>
+        <v>25.64393163552154</v>
       </c>
       <c r="S13" t="n">
-        <v>57.63526026840614</v>
+        <v>57.63526026840611</v>
       </c>
       <c r="T13" t="n">
-        <v>45.95077043248364</v>
+        <v>45.95077043248361</v>
       </c>
       <c r="U13" t="n">
         <v>110.8432023861719</v>
       </c>
       <c r="V13" t="n">
-        <v>67.29562741372143</v>
+        <v>67.29562741372141</v>
       </c>
       <c r="W13" t="n">
-        <v>112.4973193186069</v>
+        <v>112.4973193186068</v>
       </c>
       <c r="X13" t="n">
-        <v>44.10606763751406</v>
+        <v>44.10606763751403</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.32788504343995</v>
+        <v>39.32788504343992</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165.7998413948991</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.9587718714988</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>169.2219024907745</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>17.15336415818051</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.73451669048099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.65843145023558</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.33726223721345</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>35.47962222219466</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.9693265239776</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.704763753637508</v>
+        <v>9.704763753637422</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>113.4780912104837</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.79088422295324</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="T15" t="n">
-        <v>37.16046115686564</v>
+        <v>37.16046115686555</v>
       </c>
       <c r="U15" t="n">
-        <v>59.4147294735286</v>
+        <v>115.9461462812496</v>
       </c>
       <c r="V15" t="n">
+        <v>62.83553314467375</v>
+      </c>
+      <c r="W15" t="n">
+        <v>88.89119580628309</v>
+      </c>
+      <c r="X15" t="n">
+        <v>39.49952666874211</v>
+      </c>
+      <c r="Y15" t="n">
         <v>188.2377854165523</v>
-      </c>
-      <c r="W15" t="n">
-        <v>88.89119580628318</v>
-      </c>
-      <c r="X15" t="n">
-        <v>39.49952666874219</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>45.5708983632972</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.64393163552162</v>
+        <v>25.64393163552154</v>
       </c>
       <c r="S16" t="n">
-        <v>57.6352602684062</v>
+        <v>57.63526026840611</v>
       </c>
       <c r="T16" t="n">
-        <v>45.95077043248369</v>
+        <v>45.95077043248361</v>
       </c>
       <c r="U16" t="n">
-        <v>110.843202386172</v>
+        <v>110.8432023861719</v>
       </c>
       <c r="V16" t="n">
-        <v>67.29562741372149</v>
+        <v>67.29562741372141</v>
       </c>
       <c r="W16" t="n">
-        <v>112.4973193186069</v>
+        <v>112.4973193186068</v>
       </c>
       <c r="X16" t="n">
-        <v>44.10606763751412</v>
+        <v>44.10606763751403</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.32788504344001</v>
+        <v>39.32788504343992</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.54640308040496</v>
+        <v>76.54640308040501</v>
       </c>
       <c r="C17" t="n">
-        <v>52.66466008375045</v>
+        <v>52.6646600837505</v>
       </c>
       <c r="D17" t="n">
-        <v>40.23132234479891</v>
+        <v>40.23132234479897</v>
       </c>
       <c r="E17" t="n">
-        <v>73.93807476420778</v>
+        <v>73.93807476420784</v>
       </c>
       <c r="F17" t="n">
-        <v>105.6584123425851</v>
+        <v>105.6584123425852</v>
       </c>
       <c r="G17" t="n">
-        <v>121.2986921063726</v>
+        <v>121.2986921063727</v>
       </c>
       <c r="H17" t="n">
-        <v>49.49445296407464</v>
+        <v>49.49445296407475</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.33894631172365</v>
+        <v>23.3389463117237</v>
       </c>
       <c r="W17" t="n">
-        <v>40.35562652833852</v>
+        <v>40.35562652833858</v>
       </c>
       <c r="X17" t="n">
-        <v>62.24187699727776</v>
+        <v>62.24187699727781</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.74473012102152</v>
+        <v>84.74473012102158</v>
       </c>
     </row>
     <row r="18">
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>36.04187261494465</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S18" t="n">
         <v>188.2377854165523</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>188.2377854165523</v>
+        <v>31.03497982268662</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.54640308040496</v>
+        <v>76.54640308040501</v>
       </c>
       <c r="C20" t="n">
-        <v>52.66466008375045</v>
+        <v>52.6646600837505</v>
       </c>
       <c r="D20" t="n">
-        <v>40.23132234479891</v>
+        <v>40.23132234479897</v>
       </c>
       <c r="E20" t="n">
-        <v>73.93807476420778</v>
+        <v>73.93807476420784</v>
       </c>
       <c r="F20" t="n">
-        <v>105.6584123425851</v>
+        <v>105.6584123425852</v>
       </c>
       <c r="G20" t="n">
-        <v>121.2986921063726</v>
+        <v>121.2986921063727</v>
       </c>
       <c r="H20" t="n">
-        <v>49.49445296407464</v>
+        <v>49.49445296407385</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.33894631172365</v>
+        <v>23.3389463117237</v>
       </c>
       <c r="W20" t="n">
-        <v>40.35562652833852</v>
+        <v>40.35562652833858</v>
       </c>
       <c r="X20" t="n">
-        <v>62.24187699727801</v>
+        <v>62.24187699727781</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.74473012102152</v>
+        <v>84.74473012102158</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>31.03497982268651</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.627526318320683</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.54640308040496</v>
+        <v>76.54640308040501</v>
       </c>
       <c r="C23" t="n">
-        <v>52.66466008375045</v>
+        <v>52.6646600837505</v>
       </c>
       <c r="D23" t="n">
-        <v>40.23132234479891</v>
+        <v>40.23132234479897</v>
       </c>
       <c r="E23" t="n">
-        <v>73.93807476420778</v>
+        <v>73.93807476420784</v>
       </c>
       <c r="F23" t="n">
-        <v>105.6584123425851</v>
+        <v>105.6584123425852</v>
       </c>
       <c r="G23" t="n">
-        <v>121.2986921063726</v>
+        <v>121.2986921063727</v>
       </c>
       <c r="H23" t="n">
-        <v>49.49445296407464</v>
+        <v>49.49445296407475</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.33894631172365</v>
+        <v>23.3389463117237</v>
       </c>
       <c r="W23" t="n">
-        <v>40.35562652833852</v>
+        <v>40.35562652833858</v>
       </c>
       <c r="X23" t="n">
-        <v>62.24187699727776</v>
+        <v>62.24187699727781</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.74473012102152</v>
+        <v>84.74473012102158</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,19 +2448,19 @@
         <v>188.2377854165523</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>47.44519339943915</v>
+      </c>
+      <c r="W24" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
-        <v>31.754613714873</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>136.6489969560285</v>
       </c>
       <c r="D26" t="n">
-        <v>124.215659217077</v>
+        <v>124.2156592170769</v>
       </c>
       <c r="E26" t="n">
         <v>157.9224116364858</v>
       </c>
       <c r="F26" t="n">
-        <v>189.6427492148632</v>
+        <v>189.6427492148631</v>
       </c>
       <c r="G26" t="n">
-        <v>205.2830289786507</v>
+        <v>205.2830289786506</v>
       </c>
       <c r="H26" t="n">
         <v>133.4787898363527</v>
       </c>
       <c r="I26" t="n">
-        <v>27.5055629878553</v>
+        <v>27.50556298785528</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.99140403605916</v>
+        <v>13.99140403605914</v>
       </c>
       <c r="T26" t="n">
-        <v>8.915318795813755</v>
+        <v>8.915318795813727</v>
       </c>
       <c r="U26" t="n">
-        <v>36.59414958279162</v>
+        <v>36.5941495827916</v>
       </c>
       <c r="V26" t="n">
         <v>107.3232831840017</v>
       </c>
       <c r="W26" t="n">
-        <v>124.3399634006166</v>
+        <v>124.3399634006165</v>
       </c>
       <c r="X26" t="n">
         <v>146.2262138695558</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.7290669932996</v>
+        <v>168.7290669932995</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T27" t="n">
-        <v>1.417348502443733</v>
+        <v>1.417348502443704</v>
       </c>
       <c r="U27" t="n">
-        <v>156.1268206704865</v>
+        <v>23.67161681910666</v>
       </c>
       <c r="V27" t="n">
-        <v>27.09242049025193</v>
+        <v>27.0924204902519</v>
       </c>
       <c r="W27" t="n">
-        <v>53.14808315186127</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.756414014320285</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.827785708875297</v>
+        <v>20.88911318836472</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.89214761398429</v>
+        <v>21.89214761398426</v>
       </c>
       <c r="T28" t="n">
-        <v>10.20765777806179</v>
+        <v>10.20765777806176</v>
       </c>
       <c r="U28" t="n">
-        <v>75.10008973175005</v>
+        <v>75.10008973175002</v>
       </c>
       <c r="V28" t="n">
-        <v>31.55251475929958</v>
+        <v>31.55251475929956</v>
       </c>
       <c r="W28" t="n">
-        <v>76.75420666418501</v>
+        <v>76.75420666418498</v>
       </c>
       <c r="X28" t="n">
-        <v>8.362954983092209</v>
+        <v>8.36295498309218</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.584772389018099</v>
+        <v>3.58477238901807</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.5307399526829</v>
+        <v>160.530739952683</v>
       </c>
       <c r="C29" t="n">
-        <v>136.6489969560284</v>
+        <v>136.6489969560285</v>
       </c>
       <c r="D29" t="n">
         <v>124.2156592170769</v>
@@ -2804,13 +2804,13 @@
         <v>189.6427492148631</v>
       </c>
       <c r="G29" t="n">
-        <v>205.2830289786506</v>
+        <v>205.2830289786507</v>
       </c>
       <c r="H29" t="n">
         <v>133.4787898363527</v>
       </c>
       <c r="I29" t="n">
-        <v>27.50556298785526</v>
+        <v>27.50556298785528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.99140403605909</v>
+        <v>13.99140403605912</v>
       </c>
       <c r="T29" t="n">
-        <v>8.915318795813704</v>
+        <v>8.915318795813732</v>
       </c>
       <c r="U29" t="n">
-        <v>36.59414958279157</v>
+        <v>36.5941495827916</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3232831840016</v>
+        <v>107.3232831840017</v>
       </c>
       <c r="W29" t="n">
         <v>124.3399634006165</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2262138695557</v>
+        <v>146.2262138695558</v>
       </c>
       <c r="Y29" t="n">
         <v>168.7290669932995</v>
@@ -2874,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>134.7648615722126</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T30" t="n">
-        <v>1.417348502443676</v>
+        <v>1.417348502443704</v>
       </c>
       <c r="U30" t="n">
-        <v>23.67161681910663</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V30" t="n">
-        <v>27.09242049025187</v>
+        <v>27.0924204902519</v>
       </c>
       <c r="W30" t="n">
-        <v>53.14808315186121</v>
+        <v>53.14808315186124</v>
       </c>
       <c r="X30" t="n">
-        <v>3.756414014320228</v>
+        <v>3.756414014320256</v>
       </c>
       <c r="Y30" t="n">
-        <v>186.8457702636278</v>
+        <v>99.68075204130255</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.89214761398424</v>
+        <v>21.89214761398426</v>
       </c>
       <c r="T31" t="n">
-        <v>10.20765777806173</v>
+        <v>10.20765777806176</v>
       </c>
       <c r="U31" t="n">
-        <v>75.10008973174999</v>
+        <v>75.10008973175002</v>
       </c>
       <c r="V31" t="n">
-        <v>31.55251475929953</v>
+        <v>31.55251475929956</v>
       </c>
       <c r="W31" t="n">
-        <v>76.75420666418495</v>
+        <v>76.75420666418498</v>
       </c>
       <c r="X31" t="n">
-        <v>8.362954983092152</v>
+        <v>8.36295498309218</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.584772389018042</v>
+        <v>3.58477238901807</v>
       </c>
     </row>
     <row r="32">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.05490662263769</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33517391008738</v>
+        <v>16.81132022831795</v>
       </c>
       <c r="U33" t="n">
-        <v>23.58944222675034</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V33" t="n">
         <v>27.01024589789557</v>
       </c>
       <c r="W33" t="n">
-        <v>53.06590855950492</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>3.674239421963932</v>
       </c>
       <c r="Y33" t="n">
         <v>9.745611116518944</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>121.2419273275349</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U36" t="n">
-        <v>237.228117244257</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>159.3863757543907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3518,7 +3518,7 @@
         <v>147.9111095023714</v>
       </c>
       <c r="H38" t="n">
-        <v>76.10687036007346</v>
+        <v>76.10687036007343</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>105.5513476429687</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>114.7543660898818</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>109.1434339681732</v>
       </c>
       <c r="D41" t="n">
-        <v>96.71009622922168</v>
+        <v>96.71009622922165</v>
       </c>
       <c r="E41" t="n">
         <v>130.4168486486305</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1371862270079</v>
+        <v>162.1371862270078</v>
       </c>
       <c r="G41" t="n">
-        <v>177.7774659907954</v>
+        <v>177.7774659907953</v>
       </c>
       <c r="H41" t="n">
-        <v>105.9732268484975</v>
+        <v>105.9732268484974</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.08858659493634</v>
+        <v>9.088586594936311</v>
       </c>
       <c r="V41" t="n">
-        <v>79.81772019614641</v>
+        <v>79.81772019614638</v>
       </c>
       <c r="W41" t="n">
-        <v>96.83440041276128</v>
+        <v>96.83440041276125</v>
       </c>
       <c r="X41" t="n">
         <v>118.7206508817005</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>57.65455916229967</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>212.1485337147134</v>
       </c>
       <c r="U42" t="n">
-        <v>237.228117244257</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.64252016400599</v>
+        <v>25.64252016400596</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.59452674389475</v>
+        <v>47.59452674389473</v>
       </c>
       <c r="V43" t="n">
-        <v>4.046951771444299</v>
+        <v>4.04695177144427</v>
       </c>
       <c r="W43" t="n">
-        <v>49.24864367632972</v>
+        <v>49.24864367632969</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>109.1434339681732</v>
       </c>
       <c r="D44" t="n">
-        <v>96.71009622922168</v>
+        <v>96.71009622922165</v>
       </c>
       <c r="E44" t="n">
         <v>130.4168486486305</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1371862270079</v>
+        <v>162.1371862270078</v>
       </c>
       <c r="G44" t="n">
-        <v>177.7774659907954</v>
+        <v>177.7774659907953</v>
       </c>
       <c r="H44" t="n">
-        <v>105.9732268484975</v>
+        <v>105.9732268484974</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.08858659493634</v>
+        <v>9.088586594936316</v>
       </c>
       <c r="V44" t="n">
-        <v>79.81772019614579</v>
+        <v>79.81772019614638</v>
       </c>
       <c r="W44" t="n">
-        <v>96.83440041276128</v>
+        <v>96.83440041276125</v>
       </c>
       <c r="X44" t="n">
         <v>118.7206508817005</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.662117431116</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.962098501482284</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T45" t="n">
-        <v>214.973848927594</v>
+        <v>60.03702880412965</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.64252016400599</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.59452674389475</v>
+        <v>47.59452674389473</v>
       </c>
       <c r="V46" t="n">
-        <v>4.046951771444299</v>
+        <v>4.04695177144427</v>
       </c>
       <c r="W46" t="n">
-        <v>49.24864367632972</v>
+        <v>49.24864367632969</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="D2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F2" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G2" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H2" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I2" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J2" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K2" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L2" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M2" t="n">
-        <v>9.629741416440567</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I3" t="n">
         <v>0.2559399712010781</v>
@@ -4410,16 +4410,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L3" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M3" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N3" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O3" t="n">
         <v>9.629741416440567</v>
@@ -4428,10 +4428,10 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R3" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S3" t="n">
         <v>9.565433267111001</v>
@@ -4443,16 +4443,16 @@
         <v>9.565433267111001</v>
       </c>
       <c r="V3" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="W3" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="X3" t="n">
-        <v>3.487505264143985</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.565433267111001</v>
       </c>
     </row>
     <row r="4">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F5" t="n">
-        <v>9.565433267111001</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G5" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H5" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I5" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J5" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K5" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L5" t="n">
-        <v>6.462484272827225</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M5" t="n">
-        <v>9.629741416440567</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.79699856005391</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="6">
@@ -4623,10 +4623,10 @@
         <v>3.487505264143985</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E6" t="n">
         <v>0.2559399712010781</v>
@@ -4650,7 +4650,7 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L6" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M6" t="n">
         <v>9.629741416440567</v>
@@ -4671,16 +4671,16 @@
         <v>9.565433267111001</v>
       </c>
       <c r="S6" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T6" t="n">
         <v>6.333867974168094</v>
       </c>
       <c r="U6" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V6" t="n">
-        <v>3.487505264143985</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W6" t="n">
         <v>3.487505264143985</v>
@@ -4823,16 +4823,16 @@
         <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
         <v>7.065308212205419</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
         <v>3.833742919262513</v>
@@ -4890,31 +4890,31 @@
         <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
-        <v>10.41959988319577</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="S9" t="n">
-        <v>7.386136284035041</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="T9" t="n">
-        <v>7.386136284035041</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="U9" t="n">
-        <v>7.386136284035041</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="V9" t="n">
         <v>7.386136284035041</v>
@@ -4926,7 +4926,7 @@
         <v>7.386136284035041</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>411.4523056662035</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="C11" t="n">
-        <v>411.4523056662035</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="D11" t="n">
-        <v>249.8777886242855</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="E11" t="n">
-        <v>249.8777886242855</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="F11" t="n">
-        <v>249.8777886242855</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="G11" t="n">
-        <v>249.8777886242855</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="H11" t="n">
-        <v>78.9465739871395</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I11" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J11" t="n">
-        <v>15.0590228333242</v>
+        <v>114.9664989666077</v>
       </c>
       <c r="K11" t="n">
-        <v>184.2635375442748</v>
+        <v>114.9664989666077</v>
       </c>
       <c r="L11" t="n">
-        <v>230.7724640037424</v>
+        <v>218.0764276144999</v>
       </c>
       <c r="M11" t="n">
-        <v>395.8917737585847</v>
+        <v>404.4318351768866</v>
       </c>
       <c r="N11" t="n">
-        <v>470.9800540402031</v>
+        <v>479.520115458505</v>
       </c>
       <c r="O11" t="n">
-        <v>504.9744291093893</v>
+        <v>665.8755230208917</v>
       </c>
       <c r="P11" t="n">
-        <v>665.8755230208926</v>
+        <v>665.8755230208917</v>
       </c>
       <c r="Q11" t="n">
-        <v>752.9511416662101</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="R11" t="n">
-        <v>752.9511416662101</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="S11" t="n">
-        <v>702.7142561202697</v>
+        <v>702.7142561202686</v>
       </c>
       <c r="T11" t="n">
-        <v>657.60472940286</v>
+        <v>657.6047294028589</v>
       </c>
       <c r="U11" t="n">
-        <v>584.5367877491088</v>
+        <v>584.536787749108</v>
       </c>
       <c r="V11" t="n">
-        <v>584.5367877491088</v>
+        <v>440.0252768012055</v>
       </c>
       <c r="W11" t="n">
-        <v>422.8367109258377</v>
+        <v>369.7976379997408</v>
       </c>
       <c r="X11" t="n">
-        <v>411.4523056662035</v>
+        <v>185.9902374704704</v>
       </c>
       <c r="Y11" t="n">
-        <v>411.4523056662035</v>
+        <v>185.9902374704704</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>402.2812135486915</v>
+        <v>95.94792351169782</v>
       </c>
       <c r="C12" t="n">
-        <v>212.8689392816552</v>
+        <v>86.145131841357</v>
       </c>
       <c r="D12" t="n">
-        <v>52.08882304268695</v>
+        <v>86.145131841357</v>
       </c>
       <c r="E12" t="n">
-        <v>52.08882304268695</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="F12" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="G12" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="H12" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J12" t="n">
-        <v>15.05902283332482</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="K12" t="n">
-        <v>52.90632646829587</v>
+        <v>52.90632646829521</v>
       </c>
       <c r="L12" t="n">
-        <v>170.0832391874863</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M12" t="n">
-        <v>351.5778336703213</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9332412327083</v>
+        <v>537.9332412327074</v>
       </c>
       <c r="O12" t="n">
-        <v>669.4632308531772</v>
+        <v>669.4632308531762</v>
       </c>
       <c r="P12" t="n">
-        <v>752.9511416662101</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="Q12" t="n">
-        <v>752.9511416662101</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="R12" t="n">
-        <v>752.9511416662101</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="S12" t="n">
-        <v>739.020955582419</v>
+        <v>562.8119644777726</v>
       </c>
       <c r="T12" t="n">
-        <v>701.4851362320497</v>
+        <v>525.2761451274033</v>
       </c>
       <c r="U12" t="n">
-        <v>641.4702579759603</v>
+        <v>335.1369679389666</v>
       </c>
       <c r="V12" t="n">
-        <v>578.0000224762898</v>
+        <v>271.6667324392961</v>
       </c>
       <c r="W12" t="n">
-        <v>488.2109358032766</v>
+        <v>181.8776457662829</v>
       </c>
       <c r="X12" t="n">
-        <v>448.3124240166684</v>
+        <v>141.9791339796747</v>
       </c>
       <c r="Y12" t="n">
-        <v>402.2812135486915</v>
+        <v>95.94792351169782</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D13" t="n">
-        <v>15.0590228333242</v>
+        <v>47.36345297814179</v>
       </c>
       <c r="E13" t="n">
-        <v>15.0590228333242</v>
+        <v>70.54469440423907</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0590228333242</v>
+        <v>109.0423349009981</v>
       </c>
       <c r="G13" t="n">
-        <v>15.0590228333242</v>
+        <v>118.0632192478626</v>
       </c>
       <c r="H13" t="n">
-        <v>15.0590228333242</v>
+        <v>118.0632192478626</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0590228333242</v>
+        <v>130.8759198967227</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0590228333242</v>
+        <v>130.8759198967227</v>
       </c>
       <c r="K13" t="n">
-        <v>15.0590228333242</v>
+        <v>240.4815092104491</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1744229062635</v>
+        <v>384.5969092833885</v>
       </c>
       <c r="M13" t="n">
-        <v>159.1744229062635</v>
+        <v>384.5969092833885</v>
       </c>
       <c r="N13" t="n">
-        <v>318.7625422292741</v>
+        <v>384.5969092833885</v>
       </c>
       <c r="O13" t="n">
-        <v>457.6085589467505</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="P13" t="n">
-        <v>523.4429260008652</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="Q13" t="n">
-        <v>523.4429260008652</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="R13" t="n">
-        <v>497.5399647528636</v>
+        <v>497.5399647528633</v>
       </c>
       <c r="S13" t="n">
-        <v>439.3225301383119</v>
+        <v>439.3225301383117</v>
       </c>
       <c r="T13" t="n">
-        <v>392.9076105095406</v>
+        <v>392.9076105095404</v>
       </c>
       <c r="U13" t="n">
-        <v>280.9447798164376</v>
+        <v>280.9447798164375</v>
       </c>
       <c r="V13" t="n">
-        <v>212.9693985904564</v>
+        <v>212.9693985904563</v>
       </c>
       <c r="W13" t="n">
-        <v>99.33574271307572</v>
+        <v>99.33574271307566</v>
       </c>
       <c r="X13" t="n">
-        <v>54.7841592408393</v>
+        <v>54.78415924083926</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.0590228333242</v>
+        <v>15.05902283332418</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.3373772101976</v>
+        <v>347.5647545123882</v>
       </c>
       <c r="C14" t="n">
-        <v>395.3373772101976</v>
+        <v>347.5647545123882</v>
       </c>
       <c r="D14" t="n">
-        <v>395.3373772101976</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="E14" t="n">
-        <v>395.3373772101976</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="F14" t="n">
-        <v>205.1982000217609</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="G14" t="n">
-        <v>15.05902283332418</v>
+        <v>185.9902374704702</v>
       </c>
       <c r="H14" t="n">
         <v>15.05902283332418</v>
@@ -5276,16 +5276,16 @@
         <v>15.05902283332418</v>
       </c>
       <c r="J14" t="n">
-        <v>15.05902283332418</v>
+        <v>114.9664989666077</v>
       </c>
       <c r="K14" t="n">
-        <v>184.2635375442747</v>
+        <v>253.1052984005548</v>
       </c>
       <c r="L14" t="n">
-        <v>230.7724640037423</v>
+        <v>299.6142248600223</v>
       </c>
       <c r="M14" t="n">
-        <v>417.1278715661291</v>
+        <v>380.2403265414357</v>
       </c>
       <c r="N14" t="n">
         <v>566.5957341038225</v>
@@ -5300,28 +5300,28 @@
         <v>752.9511416662092</v>
       </c>
       <c r="R14" t="n">
-        <v>752.9511416662092</v>
+        <v>735.6245112034005</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9511416662092</v>
+        <v>685.3876256574601</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9511416662092</v>
+        <v>640.2780989400504</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9511416662092</v>
+        <v>567.2101572862996</v>
       </c>
       <c r="V14" t="n">
-        <v>752.9511416662092</v>
+        <v>567.2101572862996</v>
       </c>
       <c r="W14" t="n">
-        <v>752.9511416662092</v>
+        <v>531.3721550416585</v>
       </c>
       <c r="X14" t="n">
-        <v>752.9511416662092</v>
+        <v>347.5647545123882</v>
       </c>
       <c r="Y14" t="n">
-        <v>562.8119644777726</v>
+        <v>347.5647545123882</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>139.4861490597092</v>
+        <v>24.86181450366502</v>
       </c>
       <c r="C15" t="n">
-        <v>129.6833573893683</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D15" t="n">
-        <v>129.6833573893683</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E15" t="n">
         <v>15.05902283332418</v>
@@ -5358,49 +5358,49 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K15" t="n">
-        <v>52.90632646829524</v>
+        <v>52.90632646829521</v>
       </c>
       <c r="L15" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M15" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9332412327075</v>
+        <v>537.9332412327074</v>
       </c>
       <c r="O15" t="n">
-        <v>669.4632308531764</v>
+        <v>669.4632308531761</v>
       </c>
       <c r="P15" t="n">
+        <v>752.9511416662091</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>752.9511416662091</v>
+      </c>
+      <c r="R15" t="n">
         <v>752.9511416662092</v>
       </c>
-      <c r="Q15" t="n">
-        <v>752.9511416662092</v>
-      </c>
-      <c r="R15" t="n">
-        <v>616.8250188659945</v>
-      </c>
       <c r="S15" t="n">
-        <v>602.8948327822034</v>
+        <v>562.8119644777726</v>
       </c>
       <c r="T15" t="n">
-        <v>565.359013431834</v>
+        <v>525.2761451274033</v>
       </c>
       <c r="U15" t="n">
-        <v>505.3441351757445</v>
+        <v>408.1588256513936</v>
       </c>
       <c r="V15" t="n">
-        <v>315.2049579873078</v>
+        <v>344.6885901517231</v>
       </c>
       <c r="W15" t="n">
-        <v>225.4158713142945</v>
+        <v>254.8995034787099</v>
       </c>
       <c r="X15" t="n">
-        <v>185.5173595276862</v>
+        <v>215.0009916921017</v>
       </c>
       <c r="Y15" t="n">
-        <v>139.4861490597092</v>
+        <v>24.86181450366502</v>
       </c>
     </row>
     <row r="16">
@@ -5419,64 +5419,64 @@
         <v>15.05902283332418</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05902283332418</v>
+        <v>50.83489692624266</v>
       </c>
       <c r="F16" t="n">
-        <v>15.05902283332418</v>
+        <v>89.33253742300168</v>
       </c>
       <c r="G16" t="n">
-        <v>15.05902283332418</v>
+        <v>98.35342176986616</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92276744664607</v>
+        <v>110.2171663831881</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92276744664607</v>
+        <v>123.0298670320483</v>
       </c>
       <c r="J16" t="n">
-        <v>83.87822239548875</v>
+        <v>179.985321980891</v>
       </c>
       <c r="K16" t="n">
-        <v>83.87822239548875</v>
+        <v>179.985321980891</v>
       </c>
       <c r="L16" t="n">
-        <v>227.993622468428</v>
+        <v>324.1007220538304</v>
       </c>
       <c r="M16" t="n">
-        <v>378.9697556512765</v>
+        <v>355.3343410640256</v>
       </c>
       <c r="N16" t="n">
-        <v>384.5969092833893</v>
+        <v>355.3343410640256</v>
       </c>
       <c r="O16" t="n">
-        <v>523.4429260008657</v>
+        <v>355.3343410640256</v>
       </c>
       <c r="P16" t="n">
-        <v>523.4429260008657</v>
+        <v>473.4029283408809</v>
       </c>
       <c r="Q16" t="n">
-        <v>523.4429260008657</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="R16" t="n">
-        <v>497.539964752864</v>
+        <v>497.5399647528633</v>
       </c>
       <c r="S16" t="n">
-        <v>439.3225301383123</v>
+        <v>439.3225301383117</v>
       </c>
       <c r="T16" t="n">
-        <v>392.9076105095409</v>
+        <v>392.9076105095404</v>
       </c>
       <c r="U16" t="n">
-        <v>280.9447798164379</v>
+        <v>280.9447798164375</v>
       </c>
       <c r="V16" t="n">
-        <v>212.9693985904566</v>
+        <v>212.9693985904563</v>
       </c>
       <c r="W16" t="n">
-        <v>99.33574271307583</v>
+        <v>99.33574271307566</v>
       </c>
       <c r="X16" t="n">
-        <v>54.78415924083934</v>
+        <v>54.78415924083926</v>
       </c>
       <c r="Y16" t="n">
         <v>15.05902283332418</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.8222699098796</v>
+        <v>462.8222699098792</v>
       </c>
       <c r="C17" t="n">
-        <v>409.6256435626569</v>
+        <v>409.6256435626565</v>
       </c>
       <c r="D17" t="n">
-        <v>368.9879442244762</v>
+        <v>368.9879442244757</v>
       </c>
       <c r="E17" t="n">
-        <v>294.303020220226</v>
+        <v>294.3030202202254</v>
       </c>
       <c r="F17" t="n">
-        <v>187.5773511873117</v>
+        <v>187.5773511873111</v>
       </c>
       <c r="G17" t="n">
-        <v>65.05341976673292</v>
+        <v>65.05341976673303</v>
       </c>
       <c r="H17" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="I17" t="n">
-        <v>70.97300897890271</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J17" t="n">
-        <v>70.97300897890271</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="K17" t="n">
-        <v>257.3284165412895</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="L17" t="n">
-        <v>443.6838241036762</v>
+        <v>61.56794929279172</v>
       </c>
       <c r="M17" t="n">
-        <v>630.039231666063</v>
+        <v>142.1940509742051</v>
       </c>
       <c r="N17" t="n">
-        <v>705.1275119476813</v>
+        <v>217.2823312558235</v>
       </c>
       <c r="O17" t="n">
-        <v>739.1218870168676</v>
+        <v>251.2767063250097</v>
       </c>
       <c r="P17" t="n">
-        <v>739.1218870168676</v>
+        <v>437.6321138873965</v>
       </c>
       <c r="Q17" t="n">
-        <v>739.1218870168676</v>
+        <v>623.9875214497832</v>
       </c>
       <c r="R17" t="n">
-        <v>739.1218870168676</v>
+        <v>725.5358659646173</v>
       </c>
       <c r="S17" t="n">
-        <v>739.1218870168676</v>
+        <v>725.5358659646173</v>
       </c>
       <c r="T17" t="n">
-        <v>739.1218870168676</v>
+        <v>725.5358659646173</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="V17" t="n">
-        <v>729.3764484220439</v>
+        <v>729.3764484220437</v>
       </c>
       <c r="W17" t="n">
-        <v>688.6131893025101</v>
+        <v>688.6131893025099</v>
       </c>
       <c r="X17" t="n">
-        <v>625.742606476977</v>
+        <v>625.7426064769768</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.1418689809957</v>
+        <v>540.1418689809954</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>372.6727872893359</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="C18" t="n">
-        <v>372.6727872893359</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D18" t="n">
-        <v>211.8926710503676</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E18" t="n">
-        <v>211.8926710503676</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="F18" t="n">
-        <v>51.46495476761172</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="G18" t="n">
-        <v>51.46495476761172</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="H18" t="n">
-        <v>51.46495476761172</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I18" t="n">
         <v>15.05902283332418</v>
@@ -5595,49 +5595,49 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K18" t="n">
-        <v>52.90632646829524</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L18" t="n">
         <v>170.0832391874857</v>
       </c>
       <c r="M18" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N18" t="n">
-        <v>537.9332412327075</v>
+        <v>537.9332412327074</v>
       </c>
       <c r="O18" t="n">
-        <v>669.4632308531764</v>
+        <v>669.4632308531761</v>
       </c>
       <c r="P18" t="n">
-        <v>752.9511416662093</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="Q18" t="n">
-        <v>752.9511416662093</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="R18" t="n">
-        <v>752.9511416662092</v>
+        <v>616.8250188659944</v>
       </c>
       <c r="S18" t="n">
-        <v>562.8119644777726</v>
+        <v>426.6858416775577</v>
       </c>
       <c r="T18" t="n">
-        <v>562.8119644777726</v>
+        <v>236.5466644891211</v>
       </c>
       <c r="U18" t="n">
-        <v>562.8119644777726</v>
+        <v>236.5466644891211</v>
       </c>
       <c r="V18" t="n">
-        <v>562.8119644777726</v>
+        <v>46.40748730068441</v>
       </c>
       <c r="W18" t="n">
-        <v>562.8119644777726</v>
+        <v>46.40748730068441</v>
       </c>
       <c r="X18" t="n">
-        <v>372.6727872893359</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="Y18" t="n">
-        <v>372.6727872893359</v>
+        <v>15.05902283332418</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>462.8222699098791</v>
+        <v>462.8222699098793</v>
       </c>
       <c r="C20" t="n">
-        <v>409.6256435626563</v>
+        <v>409.6256435626567</v>
       </c>
       <c r="D20" t="n">
-        <v>368.9879442244755</v>
+        <v>368.9879442244759</v>
       </c>
       <c r="E20" t="n">
-        <v>294.3030202202253</v>
+        <v>294.3030202202256</v>
       </c>
       <c r="F20" t="n">
-        <v>187.577351187311</v>
+        <v>187.5773511873111</v>
       </c>
       <c r="G20" t="n">
-        <v>65.05341976673292</v>
+        <v>65.05341976673212</v>
       </c>
       <c r="H20" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="I20" t="n">
-        <v>70.97300897890271</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J20" t="n">
-        <v>70.97300897890271</v>
+        <v>201.414430395711</v>
       </c>
       <c r="K20" t="n">
-        <v>70.97300897890271</v>
+        <v>201.414430395711</v>
       </c>
       <c r="L20" t="n">
-        <v>117.4819354383703</v>
+        <v>247.9233568551785</v>
       </c>
       <c r="M20" t="n">
-        <v>198.1080371197837</v>
+        <v>434.2787644175653</v>
       </c>
       <c r="N20" t="n">
-        <v>273.1963174014022</v>
+        <v>509.3670446991836</v>
       </c>
       <c r="O20" t="n">
-        <v>307.1906924705884</v>
+        <v>695.7224522615704</v>
       </c>
       <c r="P20" t="n">
-        <v>307.1906924705884</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="Q20" t="n">
-        <v>493.5461000329752</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="R20" t="n">
-        <v>595.0944445478094</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="S20" t="n">
-        <v>631.716528353918</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="T20" t="n">
-        <v>706.0348562496176</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="U20" t="n">
         <v>752.9511416662092</v>
       </c>
       <c r="V20" t="n">
-        <v>729.3764484220439</v>
+        <v>729.3764484220438</v>
       </c>
       <c r="W20" t="n">
-        <v>688.6131893025101</v>
+        <v>688.6131893025099</v>
       </c>
       <c r="X20" t="n">
-        <v>625.7426064769766</v>
+        <v>625.7426064769768</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.1418689809952</v>
+        <v>540.1418689809955</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182.5336101008992</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="C21" t="n">
-        <v>182.5336101008992</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D21" t="n">
-        <v>21.75349386193093</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E21" t="n">
-        <v>21.75349386193093</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="F21" t="n">
-        <v>21.75349386193093</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="G21" t="n">
-        <v>21.75349386193093</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="H21" t="n">
-        <v>21.75349386193093</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I21" t="n">
         <v>15.05902283332418</v>
@@ -5832,49 +5832,49 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K21" t="n">
-        <v>52.90632646829524</v>
+        <v>52.90632646829521</v>
       </c>
       <c r="L21" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N21" t="n">
-        <v>537.9332412327075</v>
+        <v>537.9332412327074</v>
       </c>
       <c r="O21" t="n">
-        <v>669.4632308531764</v>
+        <v>669.4632308531761</v>
       </c>
       <c r="P21" t="n">
-        <v>752.9511416662093</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="Q21" t="n">
-        <v>752.9511416662093</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="R21" t="n">
-        <v>752.9511416662093</v>
+        <v>616.8250188659944</v>
       </c>
       <c r="S21" t="n">
-        <v>752.9511416662093</v>
+        <v>616.8250188659944</v>
       </c>
       <c r="T21" t="n">
-        <v>562.8119644777726</v>
+        <v>616.8250188659944</v>
       </c>
       <c r="U21" t="n">
-        <v>562.8119644777726</v>
+        <v>426.6858416775577</v>
       </c>
       <c r="V21" t="n">
-        <v>562.8119644777726</v>
+        <v>236.546664489121</v>
       </c>
       <c r="W21" t="n">
-        <v>372.6727872893359</v>
+        <v>236.546664489121</v>
       </c>
       <c r="X21" t="n">
-        <v>372.6727872893359</v>
+        <v>46.40748730068429</v>
       </c>
       <c r="Y21" t="n">
-        <v>182.5336101008992</v>
+        <v>46.40748730068429</v>
       </c>
     </row>
     <row r="22">
@@ -5966,70 +5966,70 @@
         <v>462.8222699098793</v>
       </c>
       <c r="C23" t="n">
-        <v>409.6256435626566</v>
+        <v>409.6256435626567</v>
       </c>
       <c r="D23" t="n">
-        <v>368.9879442244759</v>
+        <v>368.9879442244758</v>
       </c>
       <c r="E23" t="n">
-        <v>294.3030202202257</v>
+        <v>294.3030202202249</v>
       </c>
       <c r="F23" t="n">
-        <v>187.5773511873114</v>
+        <v>187.5773511873106</v>
       </c>
       <c r="G23" t="n">
-        <v>65.05341976673292</v>
+        <v>65.05341976673303</v>
       </c>
       <c r="H23" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="I23" t="n">
-        <v>70.9730089789027</v>
+        <v>38.17053701601722</v>
       </c>
       <c r="J23" t="n">
-        <v>70.9730089789027</v>
+        <v>38.17053701601722</v>
       </c>
       <c r="K23" t="n">
-        <v>70.9730089789027</v>
+        <v>38.17053701601722</v>
       </c>
       <c r="L23" t="n">
-        <v>117.4819354383703</v>
+        <v>224.525944578404</v>
       </c>
       <c r="M23" t="n">
-        <v>198.1080371197837</v>
+        <v>305.1520462598174</v>
       </c>
       <c r="N23" t="n">
-        <v>384.4634446821705</v>
+        <v>380.2403265414357</v>
       </c>
       <c r="O23" t="n">
-        <v>497.3027305959656</v>
+        <v>566.5957341038225</v>
       </c>
       <c r="P23" t="n">
-        <v>497.3027305959656</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="Q23" t="n">
-        <v>683.6581381583524</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="R23" t="n">
-        <v>683.6581381583524</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9511416662091</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9511416662091</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9511416662091</v>
+        <v>752.9511416662092</v>
       </c>
       <c r="V23" t="n">
-        <v>729.3764484220437</v>
+        <v>729.3764484220439</v>
       </c>
       <c r="W23" t="n">
-        <v>688.6131893025099</v>
+        <v>688.6131893025101</v>
       </c>
       <c r="X23" t="n">
-        <v>625.7426064769768</v>
+        <v>625.7426064769769</v>
       </c>
       <c r="Y23" t="n">
         <v>540.1418689809955</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>204.4712971003605</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="C24" t="n">
-        <v>15.05902283332418</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="D24" t="n">
-        <v>15.05902283332418</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="E24" t="n">
         <v>15.05902283332418</v>
@@ -6069,7 +6069,7 @@
         <v>15.05902283332418</v>
       </c>
       <c r="K24" t="n">
-        <v>52.90632646829523</v>
+        <v>52.90632646829521</v>
       </c>
       <c r="L24" t="n">
         <v>170.0832391874856</v>
@@ -6096,22 +6096,22 @@
         <v>426.6858416775577</v>
       </c>
       <c r="T24" t="n">
-        <v>236.5466644891211</v>
+        <v>426.6858416775577</v>
       </c>
       <c r="U24" t="n">
-        <v>236.5466644891211</v>
+        <v>426.6858416775577</v>
       </c>
       <c r="V24" t="n">
-        <v>236.5466644891211</v>
+        <v>378.7614039003464</v>
       </c>
       <c r="W24" t="n">
-        <v>236.5466644891211</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4712971003605</v>
+        <v>188.6222267119097</v>
       </c>
       <c r="Y24" t="n">
-        <v>204.4712971003605</v>
+        <v>188.6222267119097</v>
       </c>
     </row>
     <row r="25">
@@ -6203,16 +6203,16 @@
         <v>1020.439292541342</v>
       </c>
       <c r="C26" t="n">
-        <v>882.4100026867676</v>
+        <v>882.4100026867677</v>
       </c>
       <c r="D26" t="n">
-        <v>756.9396398412352</v>
+        <v>756.9396398412355</v>
       </c>
       <c r="E26" t="n">
-        <v>597.4220523296334</v>
+        <v>597.4220523296336</v>
       </c>
       <c r="F26" t="n">
-        <v>405.8637197893676</v>
+        <v>405.8637197893679</v>
       </c>
       <c r="G26" t="n">
         <v>198.5071248614373</v>
@@ -6221,25 +6221,25 @@
         <v>63.68006442067706</v>
       </c>
       <c r="I26" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="J26" t="n">
         <v>171.1898251244086</v>
       </c>
       <c r="K26" t="n">
-        <v>375.7800213632368</v>
+        <v>375.7800213632369</v>
       </c>
       <c r="L26" t="n">
-        <v>633.709883243603</v>
+        <v>633.7098832436033</v>
       </c>
       <c r="M26" t="n">
-        <v>925.7569203459152</v>
+        <v>925.7569203459154</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.266136048432</v>
+        <v>1212.266136048433</v>
       </c>
       <c r="O26" t="n">
-        <v>1457.681446538517</v>
+        <v>1457.681446538518</v>
       </c>
       <c r="P26" t="n">
         <v>1653.968221977899</v>
@@ -6251,22 +6251,22 @@
         <v>1794.833373162373</v>
       </c>
       <c r="S26" t="n">
-        <v>1780.700641812818</v>
+        <v>1780.700641812819</v>
       </c>
       <c r="T26" t="n">
-        <v>1771.695269291794</v>
+        <v>1771.695269291795</v>
       </c>
       <c r="U26" t="n">
         <v>1734.731481834429</v>
       </c>
       <c r="V26" t="n">
-        <v>1626.324125082912</v>
+        <v>1626.324125082913</v>
       </c>
       <c r="W26" t="n">
         <v>1500.728202456027</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.024956123142</v>
+        <v>1353.024956123143</v>
       </c>
       <c r="Y26" t="n">
         <v>1182.59155511981</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>359.7076796596375</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="C27" t="n">
-        <v>359.7076796596375</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="D27" t="n">
-        <v>359.7076796596375</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="E27" t="n">
-        <v>186.144475781052</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="F27" t="n">
-        <v>186.144475781052</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="G27" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="H27" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="I27" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="J27" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="K27" t="n">
-        <v>73.74397109821848</v>
+        <v>73.74397109821849</v>
       </c>
       <c r="L27" t="n">
         <v>190.9208838174089</v>
@@ -6330,25 +6330,25 @@
         <v>792.1514846453999</v>
       </c>
       <c r="S27" t="n">
-        <v>792.1514846453999</v>
+        <v>598.6118159649134</v>
       </c>
       <c r="T27" t="n">
-        <v>790.7198194914164</v>
+        <v>597.1801508109298</v>
       </c>
       <c r="U27" t="n">
-        <v>633.0159602282987</v>
+        <v>573.2694267512261</v>
       </c>
       <c r="V27" t="n">
-        <v>605.6498789250139</v>
+        <v>545.9033454479413</v>
       </c>
       <c r="W27" t="n">
-        <v>551.9649464483864</v>
+        <v>276.5047761782326</v>
       </c>
       <c r="X27" t="n">
-        <v>548.1705888581639</v>
+        <v>56.99678179492901</v>
       </c>
       <c r="Y27" t="n">
-        <v>538.2435325865727</v>
+        <v>35.89666746324747</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="C28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="D28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="E28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="F28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
       <c r="G28" t="n">
-        <v>35.89666746324746</v>
+        <v>80.30323333798958</v>
       </c>
       <c r="H28" t="n">
-        <v>35.89666746324746</v>
+        <v>80.30323333798958</v>
       </c>
       <c r="I28" t="n">
-        <v>35.89666746324746</v>
+        <v>80.30323333798958</v>
       </c>
       <c r="J28" t="n">
-        <v>35.89666746324746</v>
+        <v>110.6590699577713</v>
       </c>
       <c r="K28" t="n">
-        <v>35.89666746324746</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="L28" t="n">
-        <v>35.89666746324746</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="M28" t="n">
-        <v>222.2584821739735</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="N28" t="n">
-        <v>222.2584821739735</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="O28" t="n">
-        <v>222.2584821739735</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="P28" t="n">
-        <v>265.6485300080869</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="Q28" t="n">
-        <v>265.6485300080869</v>
+        <v>255.6503407993754</v>
       </c>
       <c r="R28" t="n">
-        <v>265.6485300080869</v>
+        <v>265.6485300080867</v>
       </c>
       <c r="S28" t="n">
-        <v>243.5352495899209</v>
+        <v>243.5352495899207</v>
       </c>
       <c r="T28" t="n">
-        <v>233.2244841575353</v>
+        <v>233.2244841575351</v>
       </c>
       <c r="U28" t="n">
-        <v>157.3658076608181</v>
+        <v>157.3658076608179</v>
       </c>
       <c r="V28" t="n">
-        <v>125.4945806312225</v>
+        <v>125.4945806312224</v>
       </c>
       <c r="W28" t="n">
-        <v>47.96507895022757</v>
+        <v>47.96507895022752</v>
       </c>
       <c r="X28" t="n">
-        <v>39.51764967437686</v>
+        <v>39.51764967437683</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324747</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.439292541341</v>
+        <v>1020.43929254134</v>
       </c>
       <c r="C29" t="n">
-        <v>882.4100026867669</v>
+        <v>882.4100026867661</v>
       </c>
       <c r="D29" t="n">
-        <v>756.9396398412347</v>
+        <v>756.9396398412339</v>
       </c>
       <c r="E29" t="n">
-        <v>597.4220523296328</v>
+        <v>597.422052329632</v>
       </c>
       <c r="F29" t="n">
-        <v>405.8637197893671</v>
+        <v>405.8637197893663</v>
       </c>
       <c r="G29" t="n">
-        <v>198.5071248614372</v>
+        <v>198.5071248614363</v>
       </c>
       <c r="H29" t="n">
-        <v>63.68006442067735</v>
+        <v>63.68006442067704</v>
       </c>
       <c r="I29" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="J29" t="n">
         <v>171.1898251244087</v>
@@ -6467,10 +6467,10 @@
         <v>375.7800213632369</v>
       </c>
       <c r="L29" t="n">
-        <v>633.7098832436034</v>
+        <v>633.7098832436033</v>
       </c>
       <c r="M29" t="n">
-        <v>925.7569203459157</v>
+        <v>925.7569203459154</v>
       </c>
       <c r="N29" t="n">
         <v>1212.266136048433</v>
@@ -6479,34 +6479,34 @@
         <v>1457.681446538518</v>
       </c>
       <c r="P29" t="n">
-        <v>1653.968221977899</v>
+        <v>1653.968221977898</v>
       </c>
       <c r="Q29" t="n">
         <v>1776.429522151094</v>
       </c>
       <c r="R29" t="n">
-        <v>1794.833373162373</v>
+        <v>1794.833373162372</v>
       </c>
       <c r="S29" t="n">
-        <v>1780.700641812818</v>
+        <v>1780.700641812817</v>
       </c>
       <c r="T29" t="n">
-        <v>1771.695269291794</v>
+        <v>1771.695269291793</v>
       </c>
       <c r="U29" t="n">
         <v>1734.731481834428</v>
       </c>
       <c r="V29" t="n">
-        <v>1626.324125082912</v>
+        <v>1626.324125082911</v>
       </c>
       <c r="W29" t="n">
-        <v>1500.728202456026</v>
+        <v>1500.728202456025</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.024956123142</v>
+        <v>1353.024956123141</v>
       </c>
       <c r="Y29" t="n">
-        <v>1182.591555119809</v>
+        <v>1182.591555119808</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>357.1044999849717</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="C30" t="n">
-        <v>357.1044999849717</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="D30" t="n">
-        <v>196.3243837460034</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3243837460034</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="F30" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="G30" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="H30" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="I30" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="J30" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="K30" t="n">
         <v>73.74397109821848</v>
@@ -6567,25 +6567,25 @@
         <v>656.0253618451852</v>
       </c>
       <c r="S30" t="n">
-        <v>656.0253618451852</v>
+        <v>462.4856931646987</v>
       </c>
       <c r="T30" t="n">
-        <v>654.5936966912017</v>
+        <v>461.0540280107151</v>
       </c>
       <c r="U30" t="n">
-        <v>630.682972631498</v>
+        <v>221.4296671579303</v>
       </c>
       <c r="V30" t="n">
-        <v>603.3168913282134</v>
+        <v>194.0635858546455</v>
       </c>
       <c r="W30" t="n">
-        <v>549.6319588515859</v>
+        <v>140.378653378018</v>
       </c>
       <c r="X30" t="n">
-        <v>545.8376012613634</v>
+        <v>136.5842957877955</v>
       </c>
       <c r="Y30" t="n">
-        <v>357.1044999849717</v>
+        <v>35.89666746324745</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="C31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="D31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="E31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="F31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="G31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="H31" t="n">
-        <v>35.89666746324746</v>
+        <v>83.14609360444706</v>
       </c>
       <c r="I31" t="n">
-        <v>35.89666746324746</v>
+        <v>83.14609360444706</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2378039399679</v>
+        <v>83.14609360444706</v>
       </c>
       <c r="K31" t="n">
-        <v>265.6485300080865</v>
+        <v>83.14609360444706</v>
       </c>
       <c r="L31" t="n">
-        <v>265.6485300080865</v>
+        <v>262.647175205264</v>
       </c>
       <c r="M31" t="n">
-        <v>265.6485300080865</v>
+        <v>262.647175205264</v>
       </c>
       <c r="N31" t="n">
-        <v>265.6485300080865</v>
+        <v>265.6485300080867</v>
       </c>
       <c r="O31" t="n">
-        <v>265.6485300080865</v>
+        <v>265.6485300080867</v>
       </c>
       <c r="P31" t="n">
-        <v>265.6485300080865</v>
+        <v>265.6485300080867</v>
       </c>
       <c r="Q31" t="n">
-        <v>265.6485300080865</v>
+        <v>265.6485300080867</v>
       </c>
       <c r="R31" t="n">
-        <v>265.6485300080865</v>
+        <v>265.6485300080867</v>
       </c>
       <c r="S31" t="n">
-        <v>243.5352495899206</v>
+        <v>243.5352495899207</v>
       </c>
       <c r="T31" t="n">
-        <v>233.224484157535</v>
+        <v>233.2244841575351</v>
       </c>
       <c r="U31" t="n">
-        <v>157.3658076608178</v>
+        <v>157.3658076608179</v>
       </c>
       <c r="V31" t="n">
         <v>125.4945806312224</v>
       </c>
       <c r="W31" t="n">
-        <v>47.96507895022746</v>
+        <v>47.96507895022751</v>
       </c>
       <c r="X31" t="n">
-        <v>39.5176496743768</v>
+        <v>39.51764967437682</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.89666746324746</v>
+        <v>35.89666746324745</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1019.832850486846</v>
+        <v>1019.832850486847</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8865652710156</v>
+        <v>881.886565271016</v>
       </c>
       <c r="D32" t="n">
-        <v>756.499207064227</v>
+        <v>756.4992070642276</v>
       </c>
       <c r="E32" t="n">
-        <v>597.0646241913689</v>
+        <v>597.0646241913695</v>
       </c>
       <c r="F32" t="n">
-        <v>405.5892962898469</v>
+        <v>405.5892962898474</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3157060006606</v>
+        <v>198.3157060006608</v>
       </c>
       <c r="H32" t="n">
-        <v>63.57165019864438</v>
+        <v>63.57165019864436</v>
       </c>
       <c r="I32" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2457683875525</v>
+        <v>169.2685231885009</v>
       </c>
       <c r="K32" t="n">
-        <v>373.9400722737623</v>
+        <v>373.9400722737619</v>
       </c>
       <c r="L32" t="n">
-        <v>631.9512870005615</v>
+        <v>631.951287000561</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0796769493065</v>
+        <v>924.0796769493061</v>
       </c>
       <c r="N32" t="n">
         <v>1210.670245498256</v>
@@ -6722,13 +6722,13 @@
         <v>1775.077690140216</v>
       </c>
       <c r="R32" t="n">
-        <v>1793.562893997928</v>
+        <v>1793.562893997927</v>
       </c>
       <c r="S32" t="n">
         <v>1779.513167287117</v>
       </c>
       <c r="T32" t="n">
-        <v>1770.590799404836</v>
+        <v>1770.590799404837</v>
       </c>
       <c r="U32" t="n">
         <v>1733.710016586215</v>
@@ -6740,10 +6740,10 @@
         <v>1499.8727464853</v>
       </c>
       <c r="X32" t="n">
-        <v>1352.252504791159</v>
+        <v>1352.25250479116</v>
       </c>
       <c r="Y32" t="n">
-        <v>1181.90210842657</v>
+        <v>1181.902108426571</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209.4344617585441</v>
+        <v>225.2835321469948</v>
       </c>
       <c r="C33" t="n">
-        <v>209.4344617585441</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="D33" t="n">
-        <v>209.4344617585441</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="E33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="F33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="G33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="H33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="I33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J33" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="K33" t="n">
         <v>73.71856151492958</v>
@@ -6801,28 +6801,28 @@
         <v>792.126075062111</v>
       </c>
       <c r="R33" t="n">
-        <v>723.3837451402547</v>
+        <v>792.126075062111</v>
       </c>
       <c r="S33" t="n">
-        <v>723.3837451402547</v>
+        <v>792.126075062111</v>
       </c>
       <c r="T33" t="n">
-        <v>722.035084625015</v>
+        <v>775.1449435183555</v>
       </c>
       <c r="U33" t="n">
-        <v>698.207365204055</v>
+        <v>535.5205826655706</v>
       </c>
       <c r="V33" t="n">
-        <v>670.924288539514</v>
+        <v>508.2375060010296</v>
       </c>
       <c r="W33" t="n">
-        <v>617.3223607016303</v>
+        <v>238.838936731321</v>
       </c>
       <c r="X33" t="n">
-        <v>397.8143663183266</v>
+        <v>235.1275837798422</v>
       </c>
       <c r="Y33" t="n">
-        <v>387.9703146854792</v>
+        <v>225.2835321469948</v>
       </c>
     </row>
     <row r="34">
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="C34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="D34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="E34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="F34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="G34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="H34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="I34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="K34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="L34" t="n">
-        <v>69.98693425627047</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="M34" t="n">
-        <v>69.98693425627047</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="N34" t="n">
-        <v>265.0420879535915</v>
+        <v>230.9264115772795</v>
       </c>
       <c r="O34" t="n">
-        <v>265.0420879535915</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="P34" t="n">
-        <v>265.0420879535915</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="Q34" t="n">
-        <v>265.0420879535915</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="R34" t="n">
-        <v>265.0420879535915</v>
+        <v>265.0420879535914</v>
       </c>
       <c r="S34" t="n">
         <v>243.0118121741693</v>
@@ -6892,16 +6892,16 @@
         <v>157.008379522554</v>
       </c>
       <c r="V34" t="n">
-        <v>125.2201571317023</v>
+        <v>125.2201571317022</v>
       </c>
       <c r="W34" t="n">
-        <v>47.77366008945108</v>
+        <v>47.77366008945107</v>
       </c>
       <c r="X34" t="n">
-        <v>39.40923545234416</v>
+        <v>39.40923545234414</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.87125787995856</v>
+        <v>35.87125787995854</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>630.1442098352471</v>
+        <v>630.1442098352472</v>
       </c>
       <c r="C35" t="n">
-        <v>550.0663537950963</v>
+        <v>550.0663537950966</v>
       </c>
       <c r="D35" t="n">
-        <v>482.5474247639877</v>
+        <v>482.5474247639879</v>
       </c>
       <c r="E35" t="n">
-        <v>380.9812710668093</v>
+        <v>380.9812710668095</v>
       </c>
       <c r="F35" t="n">
         <v>247.3743723409671</v>
@@ -6929,43 +6929,43 @@
         <v>97.96921122746117</v>
       </c>
       <c r="H35" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I35" t="n">
-        <v>50.6612775246641</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J35" t="n">
-        <v>50.6612775246641</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K35" t="n">
-        <v>295.1983254294441</v>
+        <v>282.1266940400381</v>
       </c>
       <c r="L35" t="n">
-        <v>341.7072518889116</v>
+        <v>543.1598034789519</v>
       </c>
       <c r="M35" t="n">
-        <v>422.333353570325</v>
+        <v>804.1929129178657</v>
       </c>
       <c r="N35" t="n">
-        <v>497.4216338519433</v>
+        <v>879.2811931994841</v>
       </c>
       <c r="O35" t="n">
-        <v>531.4160089211296</v>
+        <v>913.2755682686703</v>
       </c>
       <c r="P35" t="n">
-        <v>784.5009846420269</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="Q35" t="n">
-        <v>963.7604850967385</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="R35" t="n">
-        <v>963.7604850967385</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="S35" t="n">
-        <v>1006.707195382557</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="T35" t="n">
-        <v>1054.679230056217</v>
+        <v>1034.109237861664</v>
       </c>
       <c r="U35" t="n">
         <v>1054.679230056217</v>
@@ -6974,13 +6974,13 @@
         <v>1004.223307119124</v>
       </c>
       <c r="W35" t="n">
-        <v>936.5788183066618</v>
+        <v>936.578818306662</v>
       </c>
       <c r="X35" t="n">
-        <v>846.8270057882007</v>
+        <v>846.8270057882009</v>
       </c>
       <c r="Y35" t="n">
-        <v>734.3450385992912</v>
+        <v>734.3450385992915</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.09358460112435</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="C36" t="n">
-        <v>21.09358460112435</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="D36" t="n">
-        <v>21.09358460112435</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="E36" t="n">
-        <v>21.09358460112435</v>
+        <v>143.5601778612607</v>
       </c>
       <c r="F36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K36" t="n">
         <v>58.94088823609538</v>
@@ -7038,28 +7038,28 @@
         <v>777.3484017832768</v>
       </c>
       <c r="R36" t="n">
-        <v>641.2222789830621</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="S36" t="n">
-        <v>641.2222789830621</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="T36" t="n">
-        <v>641.2222789830621</v>
+        <v>560.2030998362121</v>
       </c>
       <c r="U36" t="n">
-        <v>401.5979181302772</v>
+        <v>560.2030998362121</v>
       </c>
       <c r="V36" t="n">
-        <v>401.5979181302772</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="W36" t="n">
-        <v>401.5979181302772</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="X36" t="n">
-        <v>182.0899237469736</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.09358460112435</v>
+        <v>317.1233817398462</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="C37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="D37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="E37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="F37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="G37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="H37" t="n">
         <v>58.57889514998946</v>
@@ -7132,13 +7132,13 @@
         <v>40.67165246769578</v>
       </c>
       <c r="W37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="X37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.09358460112435</v>
+        <v>21.09358460112434</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>630.1442098352476</v>
+        <v>630.1442098352477</v>
       </c>
       <c r="C38" t="n">
-        <v>550.0663537950968</v>
+        <v>550.066353795097</v>
       </c>
       <c r="D38" t="n">
-        <v>482.5474247639881</v>
+        <v>482.5474247639882</v>
       </c>
       <c r="E38" t="n">
-        <v>380.9812710668098</v>
+        <v>380.9812710668099</v>
       </c>
       <c r="F38" t="n">
-        <v>247.3743723409675</v>
+        <v>247.3743723409676</v>
       </c>
       <c r="G38" t="n">
-        <v>97.96921122746119</v>
+        <v>97.96921122746114</v>
       </c>
       <c r="H38" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I38" t="n">
-        <v>50.66127752466411</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J38" t="n">
-        <v>50.66127752466411</v>
+        <v>213.184942543802</v>
       </c>
       <c r="K38" t="n">
-        <v>50.66127752466411</v>
+        <v>213.184942543802</v>
       </c>
       <c r="L38" t="n">
-        <v>293.9072430752248</v>
+        <v>474.2180519827157</v>
       </c>
       <c r="M38" t="n">
-        <v>374.5333447566382</v>
+        <v>554.8441536641292</v>
       </c>
       <c r="N38" t="n">
-        <v>449.6216250382565</v>
+        <v>629.9324339457476</v>
       </c>
       <c r="O38" t="n">
-        <v>483.6160001074427</v>
+        <v>827.4476949278451</v>
       </c>
       <c r="P38" t="n">
-        <v>736.7009758283401</v>
+        <v>827.4476949278451</v>
       </c>
       <c r="Q38" t="n">
-        <v>915.9604762830518</v>
+        <v>1006.707195382557</v>
       </c>
       <c r="R38" t="n">
-        <v>991.1625275758472</v>
+        <v>1006.707195382557</v>
       </c>
       <c r="S38" t="n">
-        <v>1034.109237861665</v>
+        <v>1006.707195382557</v>
       </c>
       <c r="T38" t="n">
-        <v>1034.109237861665</v>
+        <v>1054.679230056218</v>
       </c>
       <c r="U38" t="n">
         <v>1054.679230056218</v>
@@ -7211,13 +7211,13 @@
         <v>1004.223307119124</v>
       </c>
       <c r="W38" t="n">
-        <v>936.5788183066626</v>
+        <v>936.5788183066625</v>
       </c>
       <c r="X38" t="n">
-        <v>846.8270057882012</v>
+        <v>846.8270057882013</v>
       </c>
       <c r="Y38" t="n">
-        <v>734.3450385992917</v>
+        <v>734.3450385992919</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>331.7691092016848</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="C39" t="n">
-        <v>331.7691092016848</v>
+        <v>127.7111074728099</v>
       </c>
       <c r="D39" t="n">
-        <v>331.7691092016848</v>
+        <v>127.7111074728099</v>
       </c>
       <c r="E39" t="n">
-        <v>331.7691092016848</v>
+        <v>127.7111074728099</v>
       </c>
       <c r="F39" t="n">
-        <v>171.3413929189289</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K39" t="n">
-        <v>58.94088823609539</v>
+        <v>58.94088823609538</v>
       </c>
       <c r="L39" t="n">
         <v>176.1178009552858</v>
@@ -7275,28 +7275,28 @@
         <v>777.3484017832768</v>
       </c>
       <c r="R39" t="n">
-        <v>641.2222789830621</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="S39" t="n">
-        <v>447.6826103025755</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="T39" t="n">
-        <v>331.7691092016848</v>
+        <v>560.2030998362121</v>
       </c>
       <c r="U39" t="n">
-        <v>331.7691092016848</v>
+        <v>560.2030998362121</v>
       </c>
       <c r="V39" t="n">
-        <v>331.7691092016848</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="W39" t="n">
-        <v>331.7691092016848</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="X39" t="n">
-        <v>331.7691092016848</v>
+        <v>317.1233817398462</v>
       </c>
       <c r="Y39" t="n">
-        <v>331.7691092016848</v>
+        <v>317.1233817398462</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="C40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="D40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="E40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="F40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="G40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="H40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="I40" t="n">
-        <v>23.45392100631743</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="J40" t="n">
-        <v>23.45392100631743</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="K40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="L40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="M40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="N40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="O40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="P40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="R40" t="n">
-        <v>23.45392100631743</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="S40" t="n">
-        <v>58.57889514998948</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="T40" t="n">
-        <v>58.57889514998948</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="U40" t="n">
-        <v>40.67165246769579</v>
+        <v>40.67165246769578</v>
       </c>
       <c r="V40" t="n">
-        <v>40.67165246769579</v>
+        <v>40.67165246769578</v>
       </c>
       <c r="W40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="X40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.09358460112436</v>
+        <v>21.09358460112434</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>707.8663094255123</v>
       </c>
       <c r="D41" t="n">
-        <v>610.1793435374096</v>
+        <v>610.1793435374097</v>
       </c>
       <c r="E41" t="n">
-        <v>478.4451529832373</v>
+        <v>478.4451529832374</v>
       </c>
       <c r="F41" t="n">
-        <v>314.6702174004011</v>
+        <v>314.6702174004016</v>
       </c>
       <c r="G41" t="n">
         <v>135.0970194299014</v>
@@ -7409,34 +7409,34 @@
         <v>28.05335594657065</v>
       </c>
       <c r="J41" t="n">
-        <v>28.05335594657065</v>
+        <v>190.5770209657086</v>
       </c>
       <c r="K41" t="n">
-        <v>259.8740595433756</v>
+        <v>422.3977245625135</v>
       </c>
       <c r="L41" t="n">
-        <v>545.0344287817187</v>
+        <v>468.9066510219811</v>
       </c>
       <c r="M41" t="n">
-        <v>864.3119732420076</v>
+        <v>788.1841954822701</v>
       </c>
       <c r="N41" t="n">
-        <v>1178.051696302502</v>
+        <v>1101.923918542764</v>
       </c>
       <c r="O41" t="n">
-        <v>1212.046071371688</v>
+        <v>1135.91829361195</v>
       </c>
       <c r="P41" t="n">
-        <v>1212.046071371688</v>
+        <v>1175.558272315706</v>
       </c>
       <c r="Q41" t="n">
-        <v>1357.033438959277</v>
+        <v>1325.250079846878</v>
       </c>
       <c r="R41" t="n">
-        <v>1402.667797328533</v>
+        <v>1370.884438216134</v>
       </c>
       <c r="S41" t="n">
-        <v>1402.667797328533</v>
+        <v>1384.263455578412</v>
       </c>
       <c r="T41" t="n">
         <v>1402.667797328533</v>
@@ -7454,7 +7454,7 @@
         <v>1095.131071989598</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.4810679436952</v>
+        <v>952.4810679436951</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>275.7025586603743</v>
+        <v>188.4810722293266</v>
       </c>
       <c r="C42" t="n">
-        <v>86.290284393338</v>
+        <v>188.4810722293266</v>
       </c>
       <c r="D42" t="n">
-        <v>86.290284393338</v>
+        <v>188.4810722293266</v>
       </c>
       <c r="E42" t="n">
-        <v>28.05335594657065</v>
+        <v>188.4810722293266</v>
       </c>
       <c r="F42" t="n">
         <v>28.05335594657065</v>
@@ -7512,28 +7512,28 @@
         <v>784.3081731287231</v>
       </c>
       <c r="R42" t="n">
-        <v>784.3081731287231</v>
+        <v>648.1820503285084</v>
       </c>
       <c r="S42" t="n">
-        <v>784.3081731287231</v>
+        <v>648.1820503285084</v>
       </c>
       <c r="T42" t="n">
-        <v>784.3081731287231</v>
+        <v>433.8906021318281</v>
       </c>
       <c r="U42" t="n">
-        <v>544.6838122759382</v>
+        <v>433.8906021318281</v>
       </c>
       <c r="V42" t="n">
-        <v>301.6040941795723</v>
+        <v>433.8906021318281</v>
       </c>
       <c r="W42" t="n">
-        <v>275.7025586603743</v>
+        <v>407.9890666126302</v>
       </c>
       <c r="X42" t="n">
-        <v>275.7025586603743</v>
+        <v>188.4810722293266</v>
       </c>
       <c r="Y42" t="n">
-        <v>275.7025586603743</v>
+        <v>188.4810722293266</v>
       </c>
     </row>
     <row r="43">
@@ -7573,37 +7573,37 @@
         <v>28.05335594657065</v>
       </c>
       <c r="L43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="M43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="O43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="P43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="R43" t="n">
-        <v>124.4052890614573</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="S43" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="T43" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="U43" t="n">
-        <v>81.88729074230199</v>
+        <v>81.88729074230193</v>
       </c>
       <c r="V43" t="n">
-        <v>77.79946067013603</v>
+        <v>77.799460670136</v>
       </c>
       <c r="W43" t="n">
         <v>28.05335594657065</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.1122023226577</v>
+        <v>818.112202322658</v>
       </c>
       <c r="C44" t="n">
-        <v>707.8663094255132</v>
+        <v>707.8663094255135</v>
       </c>
       <c r="D44" t="n">
-        <v>610.1793435374104</v>
+        <v>610.1793435374107</v>
       </c>
       <c r="E44" t="n">
-        <v>478.4451529832381</v>
+        <v>478.445152983238</v>
       </c>
       <c r="F44" t="n">
         <v>314.6702174004018</v>
@@ -7652,25 +7652,25 @@
         <v>190.5770209657086</v>
       </c>
       <c r="L44" t="n">
-        <v>475.7373902040516</v>
+        <v>451.3703535904325</v>
       </c>
       <c r="M44" t="n">
-        <v>795.0149346643406</v>
+        <v>770.6478980507214</v>
       </c>
       <c r="N44" t="n">
-        <v>1071.008603748937</v>
+        <v>1084.387621111215</v>
       </c>
       <c r="O44" t="n">
-        <v>1343.654421596999</v>
+        <v>1357.033438959277</v>
       </c>
       <c r="P44" t="n">
-        <v>1343.654421596999</v>
+        <v>1357.033438959277</v>
       </c>
       <c r="Q44" t="n">
-        <v>1343.654421596999</v>
+        <v>1357.033438959277</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.288779966255</v>
+        <v>1402.667797328533</v>
       </c>
       <c r="S44" t="n">
         <v>1402.667797328533</v>
@@ -7679,19 +7679,19 @@
         <v>1402.667797328533</v>
       </c>
       <c r="U44" t="n">
-        <v>1393.487406828597</v>
+        <v>1393.487406828598</v>
       </c>
       <c r="V44" t="n">
         <v>1312.86344703451</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.050921365054</v>
+        <v>1215.050921365055</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.131071989599</v>
+        <v>1095.1310719896</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.4810679436958</v>
+        <v>952.4810679436962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>162.0554947658798</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="C45" t="n">
         <v>28.05335594657065</v>
@@ -7746,31 +7746,31 @@
         <v>784.3081731287231</v>
       </c>
       <c r="Q45" t="n">
-        <v>784.3081731287231</v>
+        <v>777.275750399953</v>
       </c>
       <c r="R45" t="n">
-        <v>648.1820503285084</v>
+        <v>777.275750399953</v>
       </c>
       <c r="S45" t="n">
-        <v>648.1820503285084</v>
+        <v>583.7360817194665</v>
       </c>
       <c r="T45" t="n">
-        <v>431.0367483814437</v>
+        <v>523.0926182809517</v>
       </c>
       <c r="U45" t="n">
-        <v>431.0367483814437</v>
+        <v>523.0926182809517</v>
       </c>
       <c r="V45" t="n">
-        <v>187.9570302850777</v>
+        <v>523.0926182809517</v>
       </c>
       <c r="W45" t="n">
-        <v>162.0554947658798</v>
+        <v>253.694049011243</v>
       </c>
       <c r="X45" t="n">
-        <v>162.0554947658798</v>
+        <v>253.694049011243</v>
       </c>
       <c r="Y45" t="n">
-        <v>162.0554947658798</v>
+        <v>28.05335594657065</v>
       </c>
     </row>
     <row r="46">
@@ -7801,46 +7801,46 @@
         <v>28.05335594657065</v>
       </c>
       <c r="I46" t="n">
-        <v>28.05335594657065</v>
+        <v>103.4822454812852</v>
       </c>
       <c r="J46" t="n">
-        <v>28.05335594657065</v>
+        <v>103.4822454812852</v>
       </c>
       <c r="K46" t="n">
-        <v>129.9625702815896</v>
+        <v>103.4822454812852</v>
       </c>
       <c r="L46" t="n">
-        <v>129.9625702815896</v>
+        <v>103.4822454812852</v>
       </c>
       <c r="M46" t="n">
-        <v>129.9625702815896</v>
+        <v>103.4822454812852</v>
       </c>
       <c r="N46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="O46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="P46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="Q46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="R46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="S46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="T46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="U46" t="n">
-        <v>81.88729074230199</v>
+        <v>81.88729074230193</v>
       </c>
       <c r="V46" t="n">
-        <v>77.79946067013603</v>
+        <v>77.799460670136</v>
       </c>
       <c r="W46" t="n">
         <v>28.05335594657065</v>
@@ -8058,19 +8058,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L3" t="n">
-        <v>172.23559297146</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M3" t="n">
-        <v>176.6027710248758</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N3" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>177.037405250518</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P3" t="n">
         <v>166.6480266854964</v>
@@ -8298,10 +8298,10 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L6" t="n">
-        <v>172.23559297146</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M6" t="n">
-        <v>176.4735084131581</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N6" t="n">
         <v>160.2368887416667</v>
@@ -8538,16 +8538,16 @@
         <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.5713770459633</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>174.1352738833231</v>
+        <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.0656784238473</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196.2738526071049</v>
+        <v>196.2738526071048</v>
       </c>
       <c r="C11" t="n">
         <v>172.3921096104503</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.9587718714988</v>
       </c>
       <c r="E11" t="n">
         <v>193.6655242909077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.24867564227712</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.15336415818052</v>
+        <v>17.15336415818051</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>143.0663958384235</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>90.55771364158844</v>
       </c>
       <c r="X11" t="n">
-        <v>170.6987653169397</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>204.4721796477214</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.47401121220577</v>
+        <v>196.2738526071048</v>
       </c>
       <c r="C14" t="n">
-        <v>172.3921096104504</v>
+        <v>172.3921096104503</v>
       </c>
       <c r="D14" t="n">
-        <v>159.9587718714989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>193.6655242909077</v>
       </c>
       <c r="F14" t="n">
-        <v>37.14807645273277</v>
+        <v>225.385861869285</v>
       </c>
       <c r="G14" t="n">
-        <v>52.78835621652027</v>
+        <v>241.0261416330725</v>
       </c>
       <c r="H14" t="n">
-        <v>169.2219024907746</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.24867564227719</v>
+        <v>63.24867564227712</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.15336415818058</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73451669048107</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.65843145023566</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.33726223721354</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>143.0663958384236</v>
+        <v>143.0663958384235</v>
       </c>
       <c r="W14" t="n">
-        <v>160.0830760550385</v>
+        <v>124.6034538328437</v>
       </c>
       <c r="X14" t="n">
-        <v>181.9693265239777</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.23439423116918</v>
+        <v>204.4721796477214</v>
       </c>
     </row>
     <row r="15">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927904.4763014626</v>
+        <v>927904.4763014629</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617708.9210034051</v>
+        <v>617708.921003405</v>
       </c>
       <c r="C2" t="n">
         <v>617708.921003405</v>
       </c>
       <c r="D2" t="n">
-        <v>617726.6187781657</v>
+        <v>617726.6187781658</v>
       </c>
       <c r="E2" t="n">
         <v>531449.4268571308</v>
@@ -26326,34 +26326,34 @@
         <v>531449.426857131</v>
       </c>
       <c r="G2" t="n">
-        <v>618602.9842009748</v>
+        <v>618602.9842009749</v>
       </c>
       <c r="H2" t="n">
-        <v>618602.9842009748</v>
+        <v>618602.9842009747</v>
       </c>
       <c r="I2" t="n">
-        <v>618602.9842009746</v>
+        <v>618602.984200975</v>
       </c>
       <c r="J2" t="n">
-        <v>618602.9842009748</v>
+        <v>618602.9842009749</v>
       </c>
       <c r="K2" t="n">
-        <v>618602.9842009746</v>
+        <v>618602.9842009749</v>
       </c>
       <c r="L2" t="n">
-        <v>618602.9842009754</v>
+        <v>618602.984200975</v>
       </c>
       <c r="M2" t="n">
         <v>618602.9842009752</v>
       </c>
       <c r="N2" t="n">
-        <v>618602.9842009749</v>
+        <v>618602.984200975</v>
       </c>
       <c r="O2" t="n">
+        <v>618602.9842009753</v>
+      </c>
+      <c r="P2" t="n">
         <v>618602.9842009755</v>
-      </c>
-      <c r="P2" t="n">
-        <v>618602.9842009754</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>98.6622357129113</v>
       </c>
       <c r="E3" t="n">
-        <v>278414.6253386764</v>
+        <v>278414.6253386763</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95781.95962135997</v>
+        <v>95781.95962135986</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>144050.8638359676</v>
+        <v>144050.8638359677</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95847.69929524499</v>
+        <v>95847.69929524491</v>
       </c>
       <c r="M3" t="n">
         <v>45831.79590713835</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72106.1047036836</v>
+        <v>72106.10470368373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,25 +26433,25 @@
         <v>337932.2569579341</v>
       </c>
       <c r="H4" t="n">
-        <v>337932.256957934</v>
+        <v>337932.2569579341</v>
       </c>
       <c r="I4" t="n">
         <v>337932.2569579341</v>
       </c>
       <c r="J4" t="n">
+        <v>338620.7243128588</v>
+      </c>
+      <c r="K4" t="n">
         <v>338620.7243128587</v>
-      </c>
-      <c r="K4" t="n">
-        <v>338620.7243128588</v>
       </c>
       <c r="L4" t="n">
         <v>338619.2559728171</v>
       </c>
       <c r="M4" t="n">
-        <v>337810.8829795382</v>
+        <v>337810.8829795381</v>
       </c>
       <c r="N4" t="n">
-        <v>337810.8829795382</v>
+        <v>337810.8829795381</v>
       </c>
       <c r="O4" t="n">
         <v>338183.5397274416</v>
@@ -26476,22 +26476,22 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28591.63158141766</v>
+        <v>28591.63158141764</v>
       </c>
       <c r="F5" t="n">
-        <v>28591.63158141763</v>
+        <v>28591.63158141764</v>
       </c>
       <c r="G5" t="n">
-        <v>38656.99853567778</v>
+        <v>38656.99853567776</v>
       </c>
       <c r="H5" t="n">
-        <v>38656.99853567778</v>
+        <v>38656.99853567777</v>
       </c>
       <c r="I5" t="n">
         <v>38656.99853567777</v>
       </c>
       <c r="J5" t="n">
-        <v>47433.12923790392</v>
+        <v>47433.12923790393</v>
       </c>
       <c r="K5" t="n">
         <v>47433.12923790392</v>
@@ -26500,10 +26500,10 @@
         <v>47420.72629040915</v>
       </c>
       <c r="M5" t="n">
-        <v>41005.98616114168</v>
+        <v>41005.98616114167</v>
       </c>
       <c r="N5" t="n">
-        <v>41005.98616114169</v>
+        <v>41005.98616114167</v>
       </c>
       <c r="O5" t="n">
         <v>43784.57766005555</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200470.0345733857</v>
+        <v>200466.8414905371</v>
       </c>
       <c r="C6" t="n">
-        <v>201542.1767104958</v>
+        <v>201538.9836276473</v>
       </c>
       <c r="D6" t="n">
-        <v>201485.5642333755</v>
+        <v>201482.4343568656</v>
       </c>
       <c r="E6" t="n">
-        <v>-42584.15666802125</v>
+        <v>-42895.41937282062</v>
       </c>
       <c r="F6" t="n">
-        <v>235830.4686706553</v>
+        <v>235519.2059658558</v>
       </c>
       <c r="G6" t="n">
-        <v>146231.769086003</v>
+        <v>146231.7690860032</v>
       </c>
       <c r="H6" t="n">
-        <v>242013.728707363</v>
+        <v>242013.7287073628</v>
       </c>
       <c r="I6" t="n">
-        <v>242013.7287073628</v>
+        <v>242013.7287073632</v>
       </c>
       <c r="J6" t="n">
-        <v>88498.26681424462</v>
+        <v>88498.2668142445</v>
       </c>
       <c r="K6" t="n">
-        <v>232549.1306502119</v>
+        <v>232549.1306502123</v>
       </c>
       <c r="L6" t="n">
-        <v>136715.3026425042</v>
+        <v>136715.3026425039</v>
       </c>
       <c r="M6" t="n">
-        <v>193954.3191531569</v>
+        <v>193954.319153157</v>
       </c>
       <c r="N6" t="n">
-        <v>239786.1150602951</v>
+        <v>239786.1150602953</v>
       </c>
       <c r="O6" t="n">
-        <v>164528.7621097947</v>
+        <v>164528.7621097944</v>
       </c>
       <c r="P6" t="n">
-        <v>236634.8668134782</v>
+        <v>236634.8668134784</v>
       </c>
     </row>
   </sheetData>
@@ -26695,22 +26695,22 @@
         <v>177.8133877707285</v>
       </c>
       <c r="F2" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="G2" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="H2" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="I2" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="J2" t="n">
         <v>213.5565004251503</v>
       </c>
       <c r="K2" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="L2" t="n">
         <v>213.6386750175067</v>
@@ -26796,7 +26796,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>188.2377854165525</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="F4" t="n">
         <v>188.2377854165523</v>
@@ -26811,19 +26811,19 @@
         <v>188.2377854165523</v>
       </c>
       <c r="J4" t="n">
-        <v>448.7083432905932</v>
+        <v>448.7083432905933</v>
       </c>
       <c r="K4" t="n">
-        <v>448.7083432905932</v>
+        <v>448.7083432905931</v>
       </c>
       <c r="L4" t="n">
-        <v>448.3907234994819</v>
+        <v>448.3907234994818</v>
       </c>
       <c r="M4" t="n">
-        <v>263.6698075140544</v>
+        <v>263.6698075140543</v>
       </c>
       <c r="N4" t="n">
-        <v>263.6698075140545</v>
+        <v>263.6698075140543</v>
       </c>
       <c r="O4" t="n">
         <v>350.6669493321332</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.7274495267</v>
+        <v>119.7274495266998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.82905089845042</v>
+        <v>93.82905089845053</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.8096241190563</v>
+        <v>119.8096241190561</v>
       </c>
       <c r="M2" t="n">
         <v>57.28974488392294</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.96269441002642</v>
+        <v>63.96269441002653</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0.3176197911113263</v>
       </c>
       <c r="E4" t="n">
-        <v>184.7209159854277</v>
+        <v>184.7209159854275</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>86.99714181807872</v>
+        <v>86.99714181807889</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.7274495267</v>
+        <v>119.7274495266998</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.82905089845042</v>
+        <v>93.82905089845053</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0.3176197911113263</v>
       </c>
       <c r="M4" t="n">
-        <v>184.7209159854277</v>
+        <v>184.7209159854275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C2" t="n">
-        <v>350.2054973811788</v>
+        <v>350.3354128343698</v>
       </c>
       <c r="D2" t="n">
         <v>337.7721596422273</v>
@@ -27397,7 +27397,7 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I2" t="n">
-        <v>256.8197240036773</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
         <v>111.3013968910535</v>
@@ -27458,13 +27458,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C3" t="n">
-        <v>187.5181515243659</v>
+        <v>184.3189018843524</v>
       </c>
       <c r="D3" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E3" t="n">
-        <v>171.8275718397997</v>
+        <v>169.0096727568758</v>
       </c>
       <c r="F3" t="n">
         <v>158.8234391199283</v>
@@ -27476,7 +27476,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J3" t="n">
         <v>73.03491363274843</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T3" t="n">
         <v>215.8480604164874</v>
@@ -27515,16 +27515,16 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V3" t="n">
-        <v>237.8310218324784</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W3" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>214.1136647994571</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y3" t="n">
-        <v>220.1850364940121</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="4">
@@ -27619,7 +27619,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D5" t="n">
-        <v>337.7721596422273</v>
+        <v>337.9020750954183</v>
       </c>
       <c r="E5" t="n">
         <v>371.4789120616362</v>
@@ -27637,7 +27637,7 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>111.4313123442445</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
         <v>58.46339092876153</v>
@@ -27695,13 +27695,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C6" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D6" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F6" t="n">
         <v>158.8234391199283</v>
@@ -27743,19 +27743,19 @@
         <v>145.0317031582867</v>
       </c>
       <c r="S6" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T6" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>234.4244871192585</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W6" t="n">
-        <v>266.7045835770116</v>
+        <v>263.8866844940877</v>
       </c>
       <c r="X6" t="n">
         <v>217.3129144394706</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.4551793114576</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27907,7 +27907,7 @@
         <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0054306354542</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -27935,7 +27935,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>155.6554456454537</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27974,13 +27974,13 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.13081250099125</v>
+        <v>31.55002333718133</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.5352158530052</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -27989,7 +27989,7 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.1320514842774</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -27998,7 +27998,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>219.8674167029008</v>
       </c>
     </row>
     <row r="10">
@@ -28111,25 +28111,25 @@
         <v>177.8133877707285</v>
       </c>
       <c r="J11" t="n">
-        <v>76.89674521185623</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="K11" t="n">
-        <v>177.8133877707285</v>
+        <v>6.899736547546084</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>57.17272948325717</v>
       </c>
       <c r="M11" t="n">
-        <v>85.34667482164528</v>
+        <v>106.7972786676499</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9000328214147</v>
       </c>
       <c r="P11" t="n">
-        <v>177.8133877707285</v>
+        <v>15.28703028436156</v>
       </c>
       <c r="Q11" t="n">
         <v>177.8133877707285</v>
@@ -28169,16 +28169,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>101.4523239218472</v>
       </c>
       <c r="F12" t="n">
-        <v>122.1639369126592</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7453302346265</v>
@@ -28190,7 +28190,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J12" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482284</v>
       </c>
       <c r="R12" t="n">
         <v>134.7648615722126</v>
       </c>
       <c r="S12" t="n">
-        <v>177.8133877707285</v>
+        <v>3.366486577129357</v>
       </c>
       <c r="T12" t="n">
         <v>177.8133877707285</v>
       </c>
       <c r="U12" t="n">
-        <v>177.8133877707285</v>
+        <v>48.99033182770471</v>
       </c>
       <c r="V12" t="n">
         <v>177.8133877707285</v>
@@ -28251,43 +28251,43 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>165.0915365921212</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7013833799563</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="H13" t="n">
         <v>165.8298073532316</v>
       </c>
       <c r="I13" t="n">
-        <v>164.871265903193</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K13" t="n">
-        <v>67.10067129221696</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="L13" t="n">
         <v>177.8133877707285</v>
       </c>
       <c r="M13" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8133877707285</v>
+        <v>16.61326724243497</v>
       </c>
       <c r="O13" t="n">
         <v>177.8133877707285</v>
       </c>
       <c r="P13" t="n">
-        <v>125.0515491618997</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2679355889264</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="C14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="D14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="E14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="F14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="G14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="H14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="I14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="J14" t="n">
-        <v>76.89674521185623</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="K14" t="n">
-        <v>177.8133877707284</v>
+        <v>146.4338773899169</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.7972786676498</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>75.13089116775248</v>
+        <v>112.3910376573419</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9000328214146</v>
+        <v>153.9000328214147</v>
       </c>
       <c r="P14" t="n">
-        <v>15.28703028436152</v>
+        <v>15.28703028436156</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.85821742192286</v>
+        <v>89.85821742192289</v>
       </c>
       <c r="R14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="S14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="T14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="U14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="V14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="W14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="X14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>58.34948062931598</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28427,7 +28427,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J15" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482284</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S15" t="n">
-        <v>177.8133877707284</v>
+        <v>3.366486577129365</v>
       </c>
       <c r="T15" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="U15" t="n">
-        <v>177.8133877707284</v>
+        <v>121.2819709630074</v>
       </c>
       <c r="V15" t="n">
-        <v>52.41113549884994</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="W15" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="X15" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.8133877707284</v>
+        <v>35.14650071747332</v>
       </c>
     </row>
     <row r="16">
@@ -28491,67 +28491,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7013833799563</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="H16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="I16" t="n">
-        <v>164.871265903193</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="J16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="K16" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="M16" t="n">
-        <v>177.8133877707284</v>
+        <v>56.86135325289695</v>
       </c>
       <c r="N16" t="n">
-        <v>22.29726081022568</v>
+        <v>16.61326724243497</v>
       </c>
       <c r="O16" t="n">
-        <v>177.8133877707284</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P16" t="n">
-        <v>58.55218850117774</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2679355889264</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="R16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="S16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="T16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="U16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="V16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="W16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="X16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.8133877707284</v>
+        <v>177.8133877707285</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="C17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="D17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="E17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="F17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="G17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="H17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="I17" t="n">
-        <v>297.5408372974284</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="J17" t="n">
-        <v>76.89674521185623</v>
+        <v>76.89674521185624</v>
       </c>
       <c r="K17" t="n">
-        <v>195.1375219640983</v>
+        <v>6.899736547546084</v>
       </c>
       <c r="L17" t="n">
-        <v>141.2590718211305</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.7972786676498</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.28703028436152</v>
+        <v>203.5248157009138</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.85821742192286</v>
+        <v>278.0960028384752</v>
       </c>
       <c r="R17" t="n">
-        <v>194.966751928909</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="S17" t="n">
         <v>227.5479044612095</v>
@@ -28618,19 +28618,19 @@
         <v>222.4718192209641</v>
       </c>
       <c r="U17" t="n">
-        <v>264.119594098186</v>
+        <v>277.8428476863175</v>
       </c>
       <c r="V17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="W17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="X17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
     </row>
     <row r="18">
@@ -28646,13 +28646,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7453302346265</v>
@@ -28661,10 +28661,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I18" t="n">
-        <v>71.34652551850365</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J18" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482284</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.366486577129354</v>
+        <v>3.366486577129393</v>
       </c>
       <c r="T18" t="n">
-        <v>214.973848927594</v>
+        <v>26.73606351104178</v>
       </c>
       <c r="U18" t="n">
         <v>237.228117244257</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.41113549884997</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>29.0751290229183</v>
+        <v>186.277934616784</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28743,25 +28743,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K19" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L19" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M19" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N19" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243497</v>
       </c>
       <c r="O19" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P19" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2679355889264</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="C20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="D20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="E20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="F20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="G20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="H20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="I20" t="n">
-        <v>297.5408372974284</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="J20" t="n">
-        <v>76.89674521185623</v>
+        <v>265.1345306284085</v>
       </c>
       <c r="K20" t="n">
-        <v>6.899736547546048</v>
+        <v>6.899736547546084</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>106.7972786676499</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9000328214147</v>
       </c>
       <c r="P20" t="n">
-        <v>15.28703028436152</v>
+        <v>73.09378725874416</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.0960028384752</v>
+        <v>89.85821742192289</v>
       </c>
       <c r="R20" t="n">
-        <v>297.5408372974284</v>
+        <v>194.966751928909</v>
       </c>
       <c r="S20" t="n">
-        <v>264.5399083057636</v>
+        <v>227.5479044612095</v>
       </c>
       <c r="T20" t="n">
-        <v>297.5408372974284</v>
+        <v>222.4718192209641</v>
       </c>
       <c r="U20" t="n">
-        <v>297.5408372974284</v>
+        <v>250.1506500079419</v>
       </c>
       <c r="V20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="W20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="X20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>145.7155145749792</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28898,10 +28898,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I21" t="n">
-        <v>100.7608718151276</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J21" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482284</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T21" t="n">
-        <v>26.73606351104175</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U21" t="n">
-        <v>237.228117244257</v>
+        <v>48.99033182770471</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.41113549884994</v>
       </c>
       <c r="W21" t="n">
-        <v>78.46679816045929</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>29.0751290229183</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.14650071747332</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28980,25 +28980,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J22" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K22" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L22" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M22" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N22" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243497</v>
       </c>
       <c r="O22" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P22" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2679355889264</v>
@@ -29035,58 +29035,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="C23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="D23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="E23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="F23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="G23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="H23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="I23" t="n">
-        <v>297.5408372974284</v>
+        <v>264.4070272339077</v>
       </c>
       <c r="J23" t="n">
-        <v>76.89674521185623</v>
+        <v>76.89674521185624</v>
       </c>
       <c r="K23" t="n">
-        <v>6.899736547546063</v>
+        <v>6.899736547546084</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.2590718211305</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.3910376573418</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>79.64132408546352</v>
+        <v>153.9000328214147</v>
       </c>
       <c r="P23" t="n">
-        <v>15.28703028436153</v>
+        <v>203.5248157009138</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.0960028384752</v>
+        <v>89.85821742192289</v>
       </c>
       <c r="R23" t="n">
         <v>194.966751928909</v>
       </c>
       <c r="S23" t="n">
-        <v>297.5408372974284</v>
+        <v>227.5479044612095</v>
       </c>
       <c r="T23" t="n">
         <v>222.4718192209641</v>
@@ -29095,16 +29095,16 @@
         <v>250.1506500079419</v>
       </c>
       <c r="V23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="W23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="X23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.5408372974284</v>
+        <v>297.5408372974283</v>
       </c>
     </row>
     <row r="24">
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.962098501482274</v>
+        <v>6.962098501482284</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3.366486577129393</v>
+        <v>3.366486577129365</v>
       </c>
       <c r="T24" t="n">
-        <v>26.73606351104178</v>
+        <v>214.973848927594</v>
       </c>
       <c r="U24" t="n">
         <v>237.228117244257</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>193.2037275159631</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.46679816045929</v>
       </c>
       <c r="X24" t="n">
-        <v>185.5583007245976</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29217,25 +29217,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J25" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K25" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L25" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M25" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N25" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243497</v>
       </c>
       <c r="O25" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P25" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2679355889264</v>
@@ -29308,7 +29308,7 @@
         <v>213.5565004251503</v>
       </c>
       <c r="N26" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251508</v>
       </c>
       <c r="O26" t="n">
         <v>213.5565004251503</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29360,13 +29360,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H27" t="n">
         <v>125.7425338994548</v>
@@ -29402,25 +29402,25 @@
         <v>134.7648615722126</v>
       </c>
       <c r="S27" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.5565004251503</v>
       </c>
       <c r="U27" t="n">
-        <v>81.1012965737705</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="V27" t="n">
         <v>213.5565004251503</v>
       </c>
       <c r="W27" t="n">
-        <v>213.5565004251503</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.5565004251503</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.5565004251503</v>
+        <v>202.4951729456609</v>
       </c>
     </row>
     <row r="28">
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7013833799563</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="H28" t="n">
         <v>165.8298073532316</v>
@@ -29454,16 +29454,16 @@
         <v>164.871265903193</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2826251961399</v>
+        <v>150.9450864282426</v>
       </c>
       <c r="K28" t="n">
-        <v>67.10067129221696</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="L28" t="n">
         <v>32.24227658594127</v>
       </c>
       <c r="M28" t="n">
-        <v>213.5565004251503</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N28" t="n">
         <v>16.61326724243497</v>
@@ -29472,13 +29472,13 @@
         <v>37.56488603590384</v>
       </c>
       <c r="P28" t="n">
-        <v>102.3805196467468</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2679355889264</v>
       </c>
       <c r="R28" t="n">
-        <v>203.45731940625</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="S28" t="n">
         <v>213.5565004251503</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="C29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="D29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="E29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="F29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="G29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="H29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="I29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="J29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="K29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="L29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="M29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="N29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="O29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="P29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="R29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="S29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="T29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="U29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="V29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="W29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="X29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
     </row>
     <row r="30">
@@ -29594,13 +29594,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7453302346265</v>
@@ -29639,25 +29639,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="U30" t="n">
-        <v>213.5565004251504</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="W30" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="X30" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.53851587039782</v>
+        <v>123.7035340927231</v>
       </c>
     </row>
     <row r="31">
@@ -29685,25 +29685,25 @@
         <v>168.7013833799563</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8298073532316</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="I31" t="n">
         <v>164.871265903193</v>
       </c>
       <c r="J31" t="n">
-        <v>213.5565004251504</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K31" t="n">
-        <v>205.8993844923368</v>
+        <v>67.10067129221696</v>
       </c>
       <c r="L31" t="n">
-        <v>32.24227658594127</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="M31" t="n">
         <v>25.31224314158862</v>
       </c>
       <c r="N31" t="n">
-        <v>16.61326724243497</v>
+        <v>19.64493876043761</v>
       </c>
       <c r="O31" t="n">
         <v>37.56488603590384</v>
@@ -29718,25 +29718,25 @@
         <v>203.45731940625</v>
       </c>
       <c r="S31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="T31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="U31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="V31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="W31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="X31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5565004251504</v>
+        <v>213.5565004251503</v>
       </c>
     </row>
     <row r="32">
@@ -29770,10 +29770,10 @@
         <v>213.6386750175067</v>
       </c>
       <c r="J32" t="n">
+        <v>211.6414576447273</v>
+      </c>
+      <c r="K32" t="n">
         <v>213.6386750175067</v>
-      </c>
-      <c r="K32" t="n">
-        <v>211.6414576447277</v>
       </c>
       <c r="L32" t="n">
         <v>213.6386750175067</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29873,25 +29873,25 @@
         <v>6.962098501482284</v>
       </c>
       <c r="R33" t="n">
-        <v>66.70995494957491</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S33" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T33" t="n">
-        <v>213.6386750175067</v>
+        <v>198.1625286992761</v>
       </c>
       <c r="U33" t="n">
-        <v>213.6386750175067</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>213.6386750175067</v>
       </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>213.6386750175067</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>213.6386750175067</v>
@@ -29934,7 +29934,7 @@
         <v>67.10067129221696</v>
       </c>
       <c r="L34" t="n">
-        <v>66.7025557539331</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M34" t="n">
         <v>25.31224314158862</v>
@@ -29943,7 +29943,7 @@
         <v>213.6386750175067</v>
       </c>
       <c r="O34" t="n">
-        <v>37.56488603590384</v>
+        <v>72.02516520389564</v>
       </c>
       <c r="P34" t="n">
         <v>58.55218850117775</v>
@@ -30004,19 +30004,19 @@
         <v>270.9284199014296</v>
       </c>
       <c r="I35" t="n">
-        <v>270.9284199014296</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="J35" t="n">
         <v>76.89674521185624</v>
       </c>
       <c r="K35" t="n">
-        <v>253.9068556432834</v>
+        <v>270.5695440616004</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>216.6910939186325</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>182.2293007651519</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,22 +30025,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>270.9284199014296</v>
+        <v>137.3412419944567</v>
       </c>
       <c r="Q35" t="n">
-        <v>270.9284199014296</v>
+        <v>89.85821742192289</v>
       </c>
       <c r="R35" t="n">
         <v>194.966751928909</v>
       </c>
       <c r="S35" t="n">
+        <v>227.5479044612095</v>
+      </c>
+      <c r="T35" t="n">
+        <v>222.4718192209641</v>
+      </c>
+      <c r="U35" t="n">
         <v>270.9284199014296</v>
-      </c>
-      <c r="T35" t="n">
-        <v>270.9284199014296</v>
-      </c>
-      <c r="U35" t="n">
-        <v>250.1506500079419</v>
       </c>
       <c r="V35" t="n">
         <v>270.9284199014296</v>
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>37.5815117923934</v>
       </c>
       <c r="G36" t="n">
         <v>148.7453302346265</v>
@@ -30110,28 +30110,28 @@
         <v>6.962098501482284</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S36" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T36" t="n">
-        <v>214.973848927594</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>63.9979103796349</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>183.0466003000694</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30159,7 +30159,7 @@
         <v>168.7013833799563</v>
       </c>
       <c r="H37" t="n">
-        <v>203.6937574025903</v>
+        <v>165.8298073532316</v>
       </c>
       <c r="I37" t="n">
         <v>164.871265903193</v>
@@ -30241,16 +30241,16 @@
         <v>270.9284199014296</v>
       </c>
       <c r="I38" t="n">
+        <v>241.0620634130056</v>
+      </c>
+      <c r="J38" t="n">
         <v>270.9284199014296</v>
-      </c>
-      <c r="J38" t="n">
-        <v>76.89674521185624</v>
       </c>
       <c r="K38" t="n">
         <v>6.899736547546084</v>
       </c>
       <c r="L38" t="n">
-        <v>198.7242819101951</v>
+        <v>216.6910939186325</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,25 +30259,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>165.1726120332437</v>
       </c>
       <c r="P38" t="n">
-        <v>270.9284199014296</v>
+        <v>15.28703028436156</v>
       </c>
       <c r="Q38" t="n">
         <v>270.9284199014296</v>
       </c>
       <c r="R38" t="n">
+        <v>194.966751928909</v>
+      </c>
+      <c r="S38" t="n">
+        <v>227.5479044612095</v>
+      </c>
+      <c r="T38" t="n">
         <v>270.9284199014296</v>
       </c>
-      <c r="S38" t="n">
-        <v>270.9284199014296</v>
-      </c>
-      <c r="T38" t="n">
-        <v>222.4718192209641</v>
-      </c>
       <c r="U38" t="n">
-        <v>270.9284199014296</v>
+        <v>250.1506500079419</v>
       </c>
       <c r="V38" t="n">
         <v>270.9284199014296</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,10 +30311,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>53.27209147695963</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H39" t="n">
         <v>125.7425338994548</v>
@@ -30347,19 +30347,19 @@
         <v>6.962098501482284</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.6042719936817</v>
       </c>
       <c r="T39" t="n">
-        <v>100.2194828377122</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.228117244257</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30399,13 +30399,13 @@
         <v>165.8298073532316</v>
       </c>
       <c r="I40" t="n">
-        <v>167.2554440902567</v>
+        <v>164.871265903193</v>
       </c>
       <c r="J40" t="n">
         <v>120.2826251961399</v>
       </c>
       <c r="K40" t="n">
-        <v>67.10067129221696</v>
+        <v>104.9646213415757</v>
       </c>
       <c r="L40" t="n">
         <v>32.24227658594127</v>
@@ -30429,7 +30429,7 @@
         <v>203.45731940625</v>
       </c>
       <c r="S40" t="n">
-        <v>270.9284199014296</v>
+        <v>235.4486480391346</v>
       </c>
       <c r="T40" t="n">
         <v>223.7641582032121</v>
@@ -30481,13 +30481,13 @@
         <v>241.0620634130056</v>
       </c>
       <c r="J41" t="n">
-        <v>76.89674521185624</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="K41" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="L41" t="n">
-        <v>241.0620634130056</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>241.0620634130056</v>
@@ -30499,19 +30499,19 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>15.28703028436156</v>
+        <v>55.3274128134078</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.3101038740334</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="R41" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5479044612095</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4718192209641</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="U41" t="n">
         <v>241.0620634130056</v>
@@ -30539,16 +30539,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>114.1730126775</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>148.7453302346265</v>
@@ -30584,25 +30584,25 @@
         <v>6.962098501482284</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.6042719936817</v>
       </c>
       <c r="T42" t="n">
-        <v>214.973848927594</v>
+        <v>2.825315212880639</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30645,7 +30645,7 @@
         <v>67.10067129221696</v>
       </c>
       <c r="L43" t="n">
-        <v>129.5674615504733</v>
+        <v>135.1808769243442</v>
       </c>
       <c r="M43" t="n">
         <v>25.31224314158862</v>
@@ -30666,7 +30666,7 @@
         <v>203.45731940625</v>
       </c>
       <c r="S43" t="n">
-        <v>241.0620634130056</v>
+        <v>235.4486480391346</v>
       </c>
       <c r="T43" t="n">
         <v>223.7641582032121</v>
@@ -30724,13 +30724,13 @@
         <v>6.899736547546084</v>
       </c>
       <c r="L44" t="n">
-        <v>241.0620634130056</v>
+        <v>216.4488951164206</v>
       </c>
       <c r="M44" t="n">
         <v>241.0620634130056</v>
       </c>
       <c r="N44" t="n">
-        <v>202.9347361646246</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="O44" t="n">
         <v>241.0620634130056</v>
@@ -30745,7 +30745,7 @@
         <v>241.0620634130056</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0620634130056</v>
+        <v>227.5479044612095</v>
       </c>
       <c r="T44" t="n">
         <v>222.4718192209641</v>
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>54.85603409324992</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.962098501482284</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S45" t="n">
-        <v>191.6042719936817</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>154.9368201234644</v>
       </c>
       <c r="U45" t="n">
         <v>237.228117244257</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0620634130056</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30873,13 +30873,13 @@
         <v>165.8298073532316</v>
       </c>
       <c r="I46" t="n">
-        <v>164.871265903193</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="J46" t="n">
         <v>120.2826251961399</v>
       </c>
       <c r="K46" t="n">
-        <v>170.03927163062</v>
+        <v>67.10067129221696</v>
       </c>
       <c r="L46" t="n">
         <v>32.24227658594127</v>
@@ -30888,7 +30888,7 @@
         <v>25.31224314158862</v>
       </c>
       <c r="N46" t="n">
-        <v>16.61326724243497</v>
+        <v>43.36107007102525</v>
       </c>
       <c r="O46" t="n">
         <v>37.56488603590384</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.40536269081073</v>
       </c>
       <c r="H11" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I11" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J11" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919723</v>
       </c>
       <c r="K11" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121544</v>
       </c>
       <c r="L11" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011433</v>
       </c>
       <c r="M11" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281965</v>
       </c>
       <c r="N11" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808564</v>
       </c>
       <c r="O11" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133644</v>
       </c>
       <c r="P11" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194654</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728725</v>
       </c>
       <c r="R11" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663954</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T11" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H12" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441986</v>
       </c>
       <c r="I12" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268662</v>
       </c>
       <c r="J12" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467022</v>
       </c>
       <c r="K12" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585086</v>
       </c>
       <c r="L12" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297708</v>
       </c>
       <c r="M12" t="n">
-        <v>54.95451328984723</v>
+        <v>54.95451328984719</v>
       </c>
       <c r="N12" t="n">
-        <v>37.86081558359652</v>
+        <v>37.86081558359629</v>
       </c>
       <c r="O12" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511245</v>
       </c>
       <c r="P12" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063377</v>
       </c>
       <c r="R12" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S12" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258313</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933626</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01426895792535414</v>
+        <v>0.01426895792535413</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H13" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I13" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786421</v>
       </c>
       <c r="J13" t="n">
-        <v>12.85550458279867</v>
+        <v>12.85550458279866</v>
       </c>
       <c r="K13" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M13" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N13" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70109107025252</v>
+        <v>25.7010910702525</v>
       </c>
       <c r="P13" t="n">
-        <v>21.99172341128372</v>
+        <v>21.9917234112837</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.22592937021455</v>
+        <v>15.22592937021454</v>
       </c>
       <c r="R13" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926729</v>
       </c>
       <c r="S13" t="n">
-        <v>3.168831462675203</v>
+        <v>3.1688314626752</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788441</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836323</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.40536269081073</v>
       </c>
       <c r="H14" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I14" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J14" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919723</v>
       </c>
       <c r="K14" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121544</v>
       </c>
       <c r="L14" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011433</v>
       </c>
       <c r="M14" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281965</v>
       </c>
       <c r="N14" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808564</v>
       </c>
       <c r="O14" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133644</v>
       </c>
       <c r="P14" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194654</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728725</v>
       </c>
       <c r="R14" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663954</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T14" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H15" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441986</v>
       </c>
       <c r="I15" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268662</v>
       </c>
       <c r="J15" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467022</v>
       </c>
       <c r="K15" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585086</v>
       </c>
       <c r="L15" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297708</v>
       </c>
       <c r="M15" t="n">
-        <v>54.95451328984723</v>
+        <v>54.95451328984719</v>
       </c>
       <c r="N15" t="n">
-        <v>56.40899573437167</v>
+        <v>37.86081558359629</v>
       </c>
       <c r="O15" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511236</v>
       </c>
       <c r="P15" t="n">
-        <v>41.41612601027113</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063377</v>
       </c>
       <c r="R15" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S15" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258313</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933626</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01426895792535414</v>
+        <v>0.01426895792535413</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H16" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I16" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786421</v>
       </c>
       <c r="J16" t="n">
-        <v>12.85550458279867</v>
+        <v>12.85550458279866</v>
       </c>
       <c r="K16" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M16" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N16" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O16" t="n">
-        <v>25.70109107025252</v>
+        <v>25.7010910702525</v>
       </c>
       <c r="P16" t="n">
-        <v>21.99172341128372</v>
+        <v>21.9917234112837</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.22592937021455</v>
+        <v>15.22592937021454</v>
       </c>
       <c r="R16" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926729</v>
       </c>
       <c r="S16" t="n">
-        <v>3.168831462675203</v>
+        <v>3.1688314626752</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788441</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836323</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.40536269081073</v>
       </c>
       <c r="H17" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I17" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J17" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919723</v>
       </c>
       <c r="K17" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121544</v>
       </c>
       <c r="L17" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011433</v>
       </c>
       <c r="M17" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281965</v>
       </c>
       <c r="N17" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808564</v>
       </c>
       <c r="O17" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133644</v>
       </c>
       <c r="P17" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194654</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728725</v>
       </c>
       <c r="R17" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663954</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T17" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H18" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441986</v>
       </c>
       <c r="I18" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268662</v>
       </c>
       <c r="J18" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467022</v>
       </c>
       <c r="K18" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585086</v>
       </c>
       <c r="L18" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297708</v>
       </c>
       <c r="M18" t="n">
-        <v>54.95451328984723</v>
+        <v>54.95451328984719</v>
       </c>
       <c r="N18" t="n">
-        <v>37.86081558359629</v>
+        <v>37.86081558359626</v>
       </c>
       <c r="O18" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511236</v>
       </c>
       <c r="P18" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063377</v>
       </c>
       <c r="R18" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S18" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258313</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933626</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01426895792535414</v>
+        <v>0.01426895792535413</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H19" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I19" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786421</v>
       </c>
       <c r="J19" t="n">
-        <v>12.85550458279867</v>
+        <v>12.85550458279866</v>
       </c>
       <c r="K19" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L19" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M19" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N19" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O19" t="n">
-        <v>25.70109107025252</v>
+        <v>25.7010910702525</v>
       </c>
       <c r="P19" t="n">
-        <v>21.99172341128372</v>
+        <v>21.9917234112837</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.22592937021455</v>
+        <v>15.22592937021454</v>
       </c>
       <c r="R19" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926729</v>
       </c>
       <c r="S19" t="n">
-        <v>3.168831462675203</v>
+        <v>3.1688314626752</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788441</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836323</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.40536269081073</v>
       </c>
       <c r="H20" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I20" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J20" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919723</v>
       </c>
       <c r="K20" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121544</v>
       </c>
       <c r="L20" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011433</v>
       </c>
       <c r="M20" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281965</v>
       </c>
       <c r="N20" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808564</v>
       </c>
       <c r="O20" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133644</v>
       </c>
       <c r="P20" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194654</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728725</v>
       </c>
       <c r="R20" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663954</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T20" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H21" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441986</v>
       </c>
       <c r="I21" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268662</v>
       </c>
       <c r="J21" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467022</v>
       </c>
       <c r="K21" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585086</v>
       </c>
       <c r="L21" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297708</v>
       </c>
       <c r="M21" t="n">
-        <v>54.95451328984723</v>
+        <v>54.95451328984719</v>
       </c>
       <c r="N21" t="n">
         <v>37.86081558359629</v>
       </c>
       <c r="O21" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511236</v>
       </c>
       <c r="P21" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063377</v>
       </c>
       <c r="R21" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S21" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258313</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933626</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01426895792535414</v>
+        <v>0.01426895792535413</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H22" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I22" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786421</v>
       </c>
       <c r="J22" t="n">
-        <v>12.85550458279867</v>
+        <v>12.85550458279866</v>
       </c>
       <c r="K22" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L22" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M22" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N22" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O22" t="n">
-        <v>25.70109107025252</v>
+        <v>25.7010910702525</v>
       </c>
       <c r="P22" t="n">
-        <v>21.99172341128372</v>
+        <v>21.9917234112837</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.22592937021455</v>
+        <v>15.22592937021454</v>
       </c>
       <c r="R22" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926729</v>
       </c>
       <c r="S22" t="n">
-        <v>3.168831462675203</v>
+        <v>3.1688314626752</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788441</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836323</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4053626908107302</v>
+        <v>0.40536269081073</v>
       </c>
       <c r="H23" t="n">
-        <v>4.151420657265392</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I23" t="n">
         <v>15.62774513748069</v>
       </c>
       <c r="J23" t="n">
-        <v>34.40465167919724</v>
+        <v>34.40465167919723</v>
       </c>
       <c r="K23" t="n">
-        <v>51.56365438121546</v>
+        <v>51.56365438121544</v>
       </c>
       <c r="L23" t="n">
-        <v>63.96927283011436</v>
+        <v>63.96927283011433</v>
       </c>
       <c r="M23" t="n">
-        <v>71.17814158281968</v>
+        <v>71.17814158281965</v>
       </c>
       <c r="N23" t="n">
-        <v>72.32987832808567</v>
+        <v>72.32987832808564</v>
       </c>
       <c r="O23" t="n">
-        <v>68.29905307133647</v>
+        <v>68.29905307133644</v>
       </c>
       <c r="P23" t="n">
-        <v>58.29166164194656</v>
+        <v>58.29166164194654</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.77461027728727</v>
+        <v>43.77461027728725</v>
       </c>
       <c r="R23" t="n">
-        <v>25.46336412663955</v>
+        <v>25.46336412663954</v>
       </c>
       <c r="S23" t="n">
-        <v>9.237202316849524</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T23" t="n">
         <v>1.774475179023972</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03242901526485841</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2168881604653828</v>
       </c>
       <c r="H24" t="n">
-        <v>2.094683023441987</v>
+        <v>2.094683023441986</v>
       </c>
       <c r="I24" t="n">
-        <v>7.467421314268664</v>
+        <v>7.467421314268662</v>
       </c>
       <c r="J24" t="n">
-        <v>20.49117484467023</v>
+        <v>20.49117484467022</v>
       </c>
       <c r="K24" t="n">
-        <v>35.02268159585088</v>
+        <v>35.02268159585086</v>
       </c>
       <c r="L24" t="n">
-        <v>47.0923174729771</v>
+        <v>47.09231747297708</v>
       </c>
       <c r="M24" t="n">
-        <v>54.95451328984721</v>
+        <v>54.95451328984719</v>
       </c>
       <c r="N24" t="n">
-        <v>37.86081558359626</v>
+        <v>37.86081558359629</v>
       </c>
       <c r="O24" t="n">
-        <v>51.60321070511238</v>
+        <v>51.60321070511236</v>
       </c>
       <c r="P24" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.68558343063378</v>
+        <v>27.68558343063377</v>
       </c>
       <c r="R24" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S24" t="n">
-        <v>4.028602454258315</v>
+        <v>4.028602454258313</v>
       </c>
       <c r="T24" t="n">
-        <v>0.874211488893363</v>
+        <v>0.8742114888933626</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01426895792535414</v>
+        <v>0.01426895792535413</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H25" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I25" t="n">
-        <v>5.468176566786424</v>
+        <v>5.468176566786421</v>
       </c>
       <c r="J25" t="n">
-        <v>12.85550458279867</v>
+        <v>12.85550458279866</v>
       </c>
       <c r="K25" t="n">
         <v>21.12554308450134</v>
       </c>
       <c r="L25" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M25" t="n">
-        <v>28.50295300516876</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N25" t="n">
-        <v>27.8252164899383</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O25" t="n">
-        <v>25.70109107025251</v>
+        <v>25.7010910702525</v>
       </c>
       <c r="P25" t="n">
-        <v>21.99172341128371</v>
+        <v>21.9917234112837</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.22592937021455</v>
+        <v>15.22592937021454</v>
       </c>
       <c r="R25" t="n">
-        <v>8.175816595926733</v>
+        <v>8.175816595926729</v>
       </c>
       <c r="S25" t="n">
-        <v>3.168831462675202</v>
+        <v>3.1688314626752</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7769174686788445</v>
+        <v>0.7769174686788441</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009918095344836326</v>
+        <v>0.009918095344836323</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34675,7 +34675,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -34693,7 +34693,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1299154531910408</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L3" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.069987028295762</v>
       </c>
       <c r="P3" t="n">
         <v>3.199249640013477</v>
@@ -34915,7 +34915,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1299154531910408</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L6" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="M6" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.069987028295762</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
+        <v>0.167855661100898</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0.1678556611008989</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>100.9166425588723</v>
       </c>
       <c r="K11" t="n">
-        <v>170.9136512231824</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>46.97871359542181</v>
+        <v>104.1514430786789</v>
       </c>
       <c r="M11" t="n">
-        <v>166.7871815705477</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="N11" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921044</v>
       </c>
       <c r="O11" t="n">
-        <v>34.33775259513766</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="P11" t="n">
-        <v>162.5263574863669</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>87.95517034880561</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128387</v>
       </c>
       <c r="L12" t="n">
         <v>118.3605178981721</v>
@@ -35498,13 +35498,13 @@
         <v>183.3278732149848</v>
       </c>
       <c r="N12" t="n">
-        <v>188.2377854165525</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8585753742109</v>
+        <v>132.858575374211</v>
       </c>
       <c r="P12" t="n">
-        <v>84.33122304346762</v>
+        <v>84.33122304346759</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,28 +35547,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.63073752001779</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>23.41539537989624</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>38.88650555228185</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.112004390772197</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.9421218675355</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>110.7127164785115</v>
       </c>
       <c r="L13" t="n">
         <v>145.5711111847872</v>
@@ -35577,13 +35577,13 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.2001205282935</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>140.2485017348247</v>
       </c>
       <c r="P13" t="n">
-        <v>66.49936066072192</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>100.9166425588723</v>
       </c>
       <c r="K14" t="n">
-        <v>170.9136512231824</v>
+        <v>139.5341408423708</v>
       </c>
       <c r="L14" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M14" t="n">
+        <v>81.44050674890241</v>
+      </c>
+      <c r="N14" t="n">
         <v>188.2377854165523</v>
-      </c>
-      <c r="N14" t="n">
-        <v>150.977638926963</v>
       </c>
       <c r="O14" t="n">
         <v>188.2377854165523</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128387</v>
       </c>
       <c r="L15" t="n">
         <v>118.3605178981721</v>
@@ -35741,7 +35741,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P15" t="n">
-        <v>84.33122304346752</v>
+        <v>84.33122304346759</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,22 +35787,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.13724655850351</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.88650555228185</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.112004390772197</v>
       </c>
       <c r="H16" t="n">
-        <v>11.98358041749686</v>
+        <v>11.98358041749694</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.9421218675355</v>
       </c>
       <c r="J16" t="n">
-        <v>57.53076257458856</v>
+        <v>57.53076257458864</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>145.5711111847872</v>
       </c>
       <c r="M16" t="n">
-        <v>152.5011446291398</v>
+        <v>31.54911011130832</v>
       </c>
       <c r="N16" t="n">
-        <v>5.68399356779073</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.2485017348246</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.2611992695507</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.54545218180206</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.47877388442276</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>46.97871359542177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>81.44050674890241</v>
+      </c>
+      <c r="N17" t="n">
+        <v>75.84674775921044</v>
+      </c>
+      <c r="O17" t="n">
+        <v>34.33775259513762</v>
+      </c>
+      <c r="P17" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="L17" t="n">
+      <c r="Q17" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="M17" t="n">
-        <v>188.2377854165523</v>
-      </c>
-      <c r="N17" t="n">
-        <v>75.8467477592105</v>
-      </c>
-      <c r="O17" t="n">
-        <v>34.33775259513766</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5740853685193</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.96894409024402</v>
+        <v>27.69219767837554</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128387</v>
       </c>
       <c r="L18" t="n">
         <v>118.3605178981721</v>
@@ -35978,7 +35978,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P18" t="n">
-        <v>84.33122304346762</v>
+        <v>84.33122304346759</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.47877388442276</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M20" t="n">
-        <v>81.44050674890246</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="N20" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921044</v>
       </c>
       <c r="O20" t="n">
-        <v>34.33775259513766</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>57.8067569743826</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5740853685194</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>36.99200384455409</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>75.06901807646429</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.39018728948643</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128387</v>
       </c>
       <c r="L21" t="n">
         <v>118.3605178981721</v>
@@ -36215,7 +36215,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P21" t="n">
-        <v>84.33122304346762</v>
+        <v>84.33122304346759</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.47877388442275</v>
+        <v>23.34496382090206</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,28 +36361,28 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>46.97871359542179</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="M23" t="n">
-        <v>81.44050674890244</v>
+        <v>81.44050674890241</v>
       </c>
       <c r="N23" t="n">
+        <v>75.84674775921044</v>
+      </c>
+      <c r="O23" t="n">
         <v>188.2377854165523</v>
       </c>
-      <c r="O23" t="n">
-        <v>113.9790766806012</v>
-      </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.99293283621888</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.22959963128388</v>
+        <v>38.22959963128387</v>
       </c>
       <c r="L24" t="n">
         <v>118.3605178981721</v>
@@ -36452,7 +36452,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P24" t="n">
-        <v>84.33122304346762</v>
+        <v>84.33122304346759</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>260.5352140205721</v>
       </c>
       <c r="M26" t="n">
-        <v>294.9970071740527</v>
+        <v>294.9970071740528</v>
       </c>
       <c r="N26" t="n">
-        <v>289.4032481843608</v>
+        <v>289.4032481843612</v>
       </c>
       <c r="O26" t="n">
-        <v>247.8942530202879</v>
+        <v>247.894253020288</v>
       </c>
       <c r="P26" t="n">
         <v>198.2694701407888</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.6982830032274</v>
+        <v>123.6982830032275</v>
       </c>
       <c r="R26" t="n">
-        <v>18.58974849624131</v>
+        <v>18.58974849624134</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.85511704519405</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.66246123210274</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>146.4558291329334</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.2442572835617</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>43.82833114556904</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.09918101890031</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>136.6597552132941</v>
       </c>
       <c r="K29" t="n">
-        <v>206.6567638776043</v>
+        <v>206.6567638776042</v>
       </c>
       <c r="L29" t="n">
         <v>260.5352140205721</v>
@@ -36853,7 +36853,7 @@
         <v>123.6982830032275</v>
       </c>
       <c r="R29" t="n">
-        <v>18.58974849624136</v>
+        <v>18.58974849624133</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36981,25 +36981,25 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.72669307191879</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.27387522901051</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>138.7987132001198</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.3142238392091</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3.031671518002645</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7419298056504</v>
+        <v>134.744712432871</v>
       </c>
       <c r="K32" t="n">
-        <v>204.7417210971817</v>
+        <v>206.7389384699606</v>
       </c>
       <c r="L32" t="n">
         <v>260.6173886129284</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>34.46027916799184</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>197.0254077750717</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>34.4602791679918</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.86635648842399</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>247.0071190957374</v>
+        <v>263.6698075140543</v>
       </c>
       <c r="L35" t="n">
-        <v>46.97871359542177</v>
+        <v>263.6698075140543</v>
       </c>
       <c r="M35" t="n">
-        <v>81.44050674890241</v>
+        <v>263.6698075140543</v>
       </c>
       <c r="N35" t="n">
         <v>75.84674775921044</v>
@@ -37321,22 +37321,22 @@
         <v>34.33775259513762</v>
       </c>
       <c r="P35" t="n">
-        <v>255.6413896170681</v>
+        <v>122.0542117100951</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.0702024795067</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>43.38051544022012</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>48.45660068046553</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>20.77776989348767</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>37.8639500493587</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>37.8639500493587</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37537,16 +37537,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.86635648842399</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>194.0316746895734</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>245.7029955056169</v>
+        <v>263.6698075140543</v>
       </c>
       <c r="M38" t="n">
         <v>81.44050674890241</v>
@@ -37555,25 +37555,25 @@
         <v>75.84674775921044</v>
       </c>
       <c r="O38" t="n">
-        <v>34.33775259513762</v>
+        <v>199.5103646283813</v>
       </c>
       <c r="P38" t="n">
-        <v>255.6413896170681</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>181.0702024795067</v>
       </c>
       <c r="R38" t="n">
-        <v>75.9616679725206</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>43.38051544022012</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>48.45660068046553</v>
       </c>
       <c r="U38" t="n">
-        <v>20.77776989348767</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37695,13 +37695,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.384178187063708</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>37.8639500493587</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.479771862295</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.1653182011494</v>
       </c>
       <c r="K41" t="n">
         <v>234.1623268654595</v>
       </c>
       <c r="L41" t="n">
-        <v>288.0407770084274</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M41" t="n">
         <v>322.502570161908</v>
       </c>
       <c r="N41" t="n">
-        <v>316.908811172216</v>
+        <v>316.9088111722161</v>
       </c>
       <c r="O41" t="n">
         <v>34.33775259513762</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>40.04038252904625</v>
       </c>
       <c r="Q41" t="n">
-        <v>146.4518864521106</v>
+        <v>151.2038459910827</v>
       </c>
       <c r="R41" t="n">
-        <v>46.0953114840966</v>
+        <v>46.09531148409663</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.51415895179615</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.59024419204156</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.32518496453201</v>
+        <v>102.9386003384029</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.613415373870993</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38020,16 +38020,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.0407770084274</v>
+        <v>263.4276087118424</v>
       </c>
       <c r="M44" t="n">
         <v>322.502570161908</v>
       </c>
       <c r="N44" t="n">
-        <v>278.7814839238351</v>
+        <v>316.9088111722161</v>
       </c>
       <c r="O44" t="n">
-        <v>275.3998160081432</v>
+        <v>275.3998160081433</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,10 +38038,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.0953114840966</v>
+        <v>46.09531148409663</v>
       </c>
       <c r="S44" t="n">
-        <v>13.51415895179612</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.19079750981264</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.938600338403</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.74780282859028</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
